--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AAE863A-FEBE-433E-81E5-722DAA1A0002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32E0D4-09ED-4F4D-B58A-C5EF0DA6293D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -27,10 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Question </t>
+    <t>1. How to check the distribution policy of test table sales?</t>
   </si>
   <si>
-    <t>answer</t>
+    <t>psql&gt;\d sales
+Table” public. sales”
+Column | Type | Modifiers
+——–+———+———–
+id | integer |
+date | date |
+Distributed by: (id)</t>
   </si>
 </sst>
 </file>
@@ -66,8 +72,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,21 +391,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A9F994-8A4C-4B5B-9BE7-A89A4E7E7D13}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="285" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32E0D4-09ED-4F4D-B58A-C5EF0DA6293D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3F333-33B1-41ED-A87E-6282AF30D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -391,16 +391,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A9F994-8A4C-4B5B-9BE7-A89A4E7E7D13}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="285" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B3F333-33B1-41ED-A87E-6282AF30D51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517ACAB7-3DDA-49E2-8481-5E4792159B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -37,6 +37,113 @@
 id | integer |
 date | date |
 Distributed by: (id)</t>
+  </si>
+  <si>
+    <t>2. How many user schemas are there in the database?</t>
+  </si>
+  <si>
+    <t>Use”dn” at psql prompt.</t>
+  </si>
+  <si>
+    <t>3. When is my tables last analyzed in the Greenplum database?</t>
+  </si>
+  <si>
+    <t>In 4.x check pg_stat_operations for all action-name performed on any object.
+For example, a sales table:
+gpdb=# select objname,action-name,statime from pg_stat_operations where objname like ‘sales’;
+objname | action-name | statime
+--–+---–+-----------
+sales | CREATE | 2010-10-01 12:18:41.996244-07
+sales | ANALYZE | 2010-10-06 14:38:21.933281-07
+sales | VACUUM | 2010-10-06 14:38:33.881245-07</t>
+  </si>
+  <si>
+    <t>4. How to check the size of a table?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table Level:
+psql&gt; select pg_size_pretty(pg_relation_size(‘schema.tablename’));
+Replace schema.tablename with your search table.
+Table and Index:
+psql&gt; select pg_size_pretty(pg_total_relation_size(‘schema.tablename’));
+Replace schema.tablename with your search table.
+</t>
+  </si>
+  <si>
+    <t>5. How to check the Schema size?</t>
+  </si>
+  <si>
+    <t>Schema Level:
+psql&gt; select schemaname ,round(sum(pg_total_relation_size(schemaname||’.’||tablename))/1024/1024) “Size_MB”
+from pg_tables where schemaname=’SCHEMANAME’ group by 1;
+[ Related Article: Analytics Tools in Big Data ]</t>
+  </si>
+  <si>
+    <t>6. How to check the database size?</t>
+  </si>
+  <si>
+    <t>To see the size of the specific database:
+psql&gt; select pg_size_pretty(pg_database_size(‘DATBASE_NAME’));
+Example:
+gpdb=# select pg_size_pretty(pg_database_size(‘gpdb’));
+pg_size_pretty
+------
+24 MB
+(1 row)
+To see all database sizes:
+psql&gt; select datname,pg_size_pretty(pg_database_size(datname)) from pg_database;</t>
+  </si>
+  <si>
+    <t>7. How to check partitioned table size including indexes and partitions?</t>
+  </si>
+  <si>
+    <t>Table size with partitions:
+The following SQL gives you employee_dailly table size, which includes partitions.
+select schemaname,tablename,round(sum(pg_total_relation_size(schemaname || ‘.’ || partitiontablename))/1024/1024) “MB”
+from pg_partitions where tablename=’employee_daily’ group by 1,2;
+schemaname | tablename | MB
+---–+------+-–
+public | employee_daily | 254</t>
+  </si>
+  <si>
+    <t>8. How do I get help on the syntax to alter the table?</t>
+  </si>
+  <si>
+    <t>In psql session type halter table which will display the syntax:
+gpdb=# h alter table</t>
+  </si>
+  <si>
+    <t>9. How to connect in utility mode?</t>
+  </si>
+  <si>
+    <t>From master host
+PGOPTIONS=’-c gp_session_role=utility’ psql -p -h
+Where:
+port is segment/ master database port.
+hostname is segment/master hostname.</t>
+  </si>
+  <si>
+    <t>10. Where/How to find db logs?</t>
+  </si>
+  <si>
+    <t>Master: Master gpdb log file is located in the $MASTER_DATA_DIRECTORY/pg_log/ directory and the file name depends on the database “log_filename” parameter.
+1. $MASTER_DATA_DIRECTORY/pg_log/gpdb-yyyy-mm-dd_000000.csv –&gt;Log file format with default installation.
+2. ~gpadmin/gpAdminLogs/ –&gt;gpstart,gpstop,gpstate and other utility logs.
+Segments:
+1. primary segments run below SQL to see log file location:
+select dbid,hostname,datadir||’/pg_log’ from gp_configuration where content not in (-1) and isprimary is true;
+2. Miror Segments run below SQL to see log file location:
+select dbid,hostname,datadir||’/pg_log’ from gp_configuration where content not in (-1) and isprimary is false;
+11. How to see the list of available functions in Greenplum DB?
+df schemaname.functionname (schemaname and function name support wildcard characters)
+test=# df pub*.*test*
+List of functions
+Schema | Name | Result data type | Argument data types
+--–+-----+------+-------
+public | bugtest | integer |
+public | test | boolean | integer
+public | test | void |
+(3 rows)</t>
   </si>
 </sst>
 </file>
@@ -391,16 +498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A9F994-8A4C-4B5B-9BE7-A89A4E7E7D13}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -411,28 +518,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517ACAB7-3DDA-49E2-8481-5E4792159B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F097E987-429E-4D24-8214-10A79B071D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -133,9 +133,13 @@
 1. primary segments run below SQL to see log file location:
 select dbid,hostname,datadir||’/pg_log’ from gp_configuration where content not in (-1) and isprimary is true;
 2. Miror Segments run below SQL to see log file location:
-select dbid,hostname,datadir||’/pg_log’ from gp_configuration where content not in (-1) and isprimary is false;
-11. How to see the list of available functions in Greenplum DB?
-df schemaname.functionname (schemaname and function name support wildcard characters)
+select dbid,hostname,datadir||’/pg_log’ from gp_configuration where content not in (-1) and isprimary is false;</t>
+  </si>
+  <si>
+    <t>11. How to see the list of available functions in Greenplum DB?</t>
+  </si>
+  <si>
+    <t>df schemaname.functionname (schemaname and function name support wildcard characters)
 test=# df pub*.*test*
 List of functions
 Schema | Name | Result data type | Argument data types
@@ -144,6 +148,173 @@
 public | test | boolean | integer
 public | test | void |
 (3 rows)</t>
+  </si>
+  <si>
+    <t>12. How to check whether Greenplum server is up and running?</t>
+  </si>
+  <si>
+    <t>The gpstate is the utility to check gpdb status.
+Use gpstate -Q to show a quick status. Refer to gpstate –help for more options.
+Sample output:
+[gpadmin@stinger2]/export/home/gpadmin&gt;gpstate -Q
+gpadmin-[INFO]:-Obtaining GPDB array type, [Brief], please wait…
+gpadmin-[INFO]:-Obtaining GPDB array type, [Brief], please wait…
+gpadmin-[INFO]:-Quick Greenplum database status from Master instance only
+gpadmin-[INFO]:--------------------
+gpadmin-[INFO]:-GPDB fault action value = readonly
+gpadmin-[INFO]:-Valid count in status view = 4
+gpadmin-[INFO]:-Invalid count in status view = 0
+gpadmin-[INFO]:--------------------</t>
+  </si>
+  <si>
+    <t>13. How to create a Database?</t>
+  </si>
+  <si>
+    <t>There are two ways to create gpdb database using psql session or the Greenplum createdb utility.
+Using psql session:
+gpdb=# h create the database
+Command: CREATE DATABASE
+Description: create a new database
+Syntax:
+CREATE DATABASE name
+[ [ WITH ] [ OWNER [=] dbowner ]
+[ TEMPLATE [=] template ]
+[ ENCODING [=] encoding ]
+[ TABLESPACE [=] tablespace ]
+[ CONNECTION LIMIT [=] connlimit ] ]
+Using createdb utility:
+Usage: $GPHOME/bin/createdb –help
+createdb [OPTION]… [DBNAME] [DESCRIPTION]
+Options:
+-D, –tablespace=TABLESPACE default tablespace for the database
+-e, –echo shows the commands being sent to the server
+-E, –encoding=ENCODING encoding for the database
+-O, –owner=OWNER database user to own the new database
+-T, –template=TEMPLATE template database to copy
+–help show this help, then exit
+–version output version information, then exit</t>
+  </si>
+  <si>
+    <t>14. How do I get a list of databases in a Greenplum cluster?</t>
+  </si>
+  <si>
+    <t>gpdb=# l (lowercase letter “l”)
+List of databases
+Name | Owner | Encoding
+--{}----
+gpdb | gpadmin | UTF8
+gpperfmon | gpadmin | UTF8
+postgres | gpadmin | UTF8
+template0 | gpadmin | UTF8
+template1 | gpadmin | UTF8
+Check below SQL for more details on dbs.
+gpdb=# select * from pg_database;</t>
+  </si>
+  <si>
+    <t>15. How to delete/drop an existing database in Greenplum?</t>
+  </si>
+  <si>
+    <t>gpdb=# h DROP Database
+Command: DROP DATABASE
+Description: remove a database
+Syntax:DROP DATABASE [ IF EXISTS ] name
+Also check dropdb utility:
+$GPHOME/bin/dropdb –help
+dropdb removes a PostgreSQL database.
+Usage:
+dropdb [OPTION]… DBNAME
+16. Where can I get help on Postgres psql commands?
+In psql session
+“ ?” – for all psql session help
+“h ” For any SQL syntax help.</t>
+  </si>
+  <si>
+    <t>17. gpstart failed what should I do?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check gpstart logfile in ~gpadmin/gpAdminLogs/gpstart_yyyymmdd.log
+Take a look at the pg start log file for more details in
+$MASTER_DATA_DIRECTORY/pg_log/startup.log
+</t>
+  </si>
+  <si>
+    <t>18. Why do we need gpstop -m and gpstart -m?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The gpstart -m command allows you to start the master only and none of the data segments and is used primarily by support to get system level information/configuration. An end user would not regularly or even normally use it.
+</t>
+  </si>
+  <si>
+    <t>19. What is the procedure to get rid of mirror segments?</t>
+  </si>
+  <si>
+    <t>There are no utilities available to remove mirrors from Greenplum. You need to make sure all primary segments are good then you can remove the mirror configuration from gp_configuration in 3.x.</t>
+  </si>
+  <si>
+    <t>20. How to run gpcheckcat?</t>
+  </si>
+  <si>
+    <t>The gpcheckcat tool is used to check catalog inconsistencies between master and segments. It can be found in the $GPHOME/bin/lib directory:
+Usage: gpcheckcat
+[dbname]
+-?
+-B parallel: number of worker threads
+-g dir : generate SQL to rectify catalog corruption, put it in dir
+-h host : DB hostname
+-p port : DB port number
+-P passwd : DB password
+-o : check OID consistency
+-U uname : DB User Name
+-v : verbose
+Example:
+gpcheckcat gpdb &gt;gpcheckcat_gpdb_logfile.log</t>
+  </si>
+  <si>
+    <t>21. What is gpdetective and how do I run it in Greenplum?</t>
+  </si>
+  <si>
+    <t>The gpdetective utility collects information from a running Greenplum Database system and creates a bzip2-compressed tar output file. This output file helps with the diagnosis of Greenplum Database errors or system failures. for more details check help.
+gpdetective –help</t>
+  </si>
+  <si>
+    <t>22. How to delete a standby?</t>
+  </si>
+  <si>
+    <t>To remove the currently configured standby master host from your Greenplum Database system, run the following command in the master only:
+gpinitstandby -r</t>
+  </si>
+  <si>
+    <t>23. How to re-sync a standby?</t>
+  </si>
+  <si>
+    <t>Use this option if you already have a standby master configured, and just want to resynchronize the data between the primary and backup master host. The Greenplum system catalog tables will not be updated.
+gpinitstandby -n (resynchronize)</t>
+  </si>
+  <si>
+    <t>24. How to recover an invalid segment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use the gprecoverseg tool, which will recognize which segments need recovery and will initialize recovery.
+3.3.x:
+Without “-F” option – The first files will be compared, the difference found and only different files will be synched (the first stage could last a long time if there are too many files in the data directory)
+With “-F” option – The entire data directory will be resynched.
+4.0.x:
+Without “-F” option – The change tracking log will be sent and applied to the mirror.
+With “-F” option – The entire data directory will be resynched.
+25. How to add mirrors to the array?
+The gpaddmirrors utility configures mirror segment instances for an existing Greenplum Database system that was initially configured with primary segment instances only.
+For more details check help.
+gpaddmirrors –help
+</t>
+  </si>
+  <si>
+    <t>26. How to see primary to mirror mapping?</t>
+  </si>
+  <si>
+    <t>From the database catalog following query list configuration on content ID, you can figure out primary and mirror for each content.
+gpdb=# select * from gp_configuration order by content.
+Note: starting from GPDB 4.x, gp_segment_configuration table is used instead.
+gpdb=# select * from gp_segment_configuration order by dbid;</t>
   </si>
 </sst>
 </file>
@@ -498,15 +669,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A9F994-8A4C-4B5B-9BE7-A89A4E7E7D13}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -582,12 +753,124 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F097E987-429E-4D24-8214-10A79B071D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E454DFB7-0FD8-46C6-9AAC-812E72512294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -315,6 +315,40 @@
 gpdb=# select * from gp_configuration order by content.
 Note: starting from GPDB 4.x, gp_segment_configuration table is used instead.
 gpdb=# select * from gp_segment_configuration order by dbid;</t>
+  </si>
+  <si>
+    <t>27. How to start/stop DB in admin mode?</t>
+  </si>
+  <si>
+    <t>Admin mode:
+The gpstart with option (-R) stands for Admin mode or restricted mode where only superusers can connect to the database when the database opened using this option.
+utility mode:
+Utility mode allows you to connect to only individual segments when started using gpstart -m, for example&lt; to connect to only master instance only:
+PGOPTIONS=’-c gp_session_role=utility’ psql</t>
+  </si>
+  <si>
+    <t>28. How to run gpcheckperf IO/netperf?</t>
+  </si>
+  <si>
+    <t>Create a directory where you have free space and common in all hosts.
+For network I/O test for each nic card:
+gpcheckperf -f seg_host_file_nic-1 -r N -d /data/gpcheckperf &gt; seg_host_file_nic_1.out
+gpcheckperf -f seg_host_file_nic-2 -r N -d /data/gpcheckperf &gt; seg_host_file_nic_2.out
+For disk I/O:
+gpcheckperf -f seg_host_file_nic-1 -r ds -D -d /data/gpdb_p1 -d /data/gpdb_p2 -d /data/gpdb_m1 -d /data/gpdb_m2</t>
+  </si>
+  <si>
+    <t>29. How to update postgresql.conf and reload it?</t>
+  </si>
+  <si>
+    <t>In GP 4.0 version check gpconfig utility to change postgres.conf parameters.
+In 3.X version manually change parameters in postgres.conf for more details check Greenplum Administrator’s Guide.</t>
+  </si>
+  <si>
+    <t>30. How to manage pg_hba.conf?</t>
+  </si>
+  <si>
+    <t>The pg_hba.conf file of the master instance controls client access and authentication to your Greenplum system. Check Greenplum Administrator’s Guide for instructions to add/change contents of this file.</t>
   </si>
 </sst>
 </file>
@@ -669,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A9F994-8A4C-4B5B-9BE7-A89A4E7E7D13}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,6 +907,46 @@
         <v>47</v>
       </c>
     </row>
+    <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E454DFB7-0FD8-46C6-9AAC-812E72512294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDF034F-D93E-4E20-822D-047F8444E9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -349,6 +349,339 @@
   </si>
   <si>
     <t>The pg_hba.conf file of the master instance controls client access and authentication to your Greenplum system. Check Greenplum Administrator’s Guide for instructions to add/change contents of this file.</t>
+  </si>
+  <si>
+    <t>31. How to add a new user to the database?</t>
+  </si>
+  <si>
+    <t>Use create user utility to create users. See create user –help for more details.
+You can also use SQL commands in psql prompt to create users.
+For example: CREATE USER or ROLE ….</t>
+  </si>
+  <si>
+    <t>32. How to create a password-free trusted env b/w the all the segment hosts?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use gpssh-exkeys:
+gpssh-exkeys -h hostname1 -h hostname2 .. -h hostnameN
+</t>
+  </si>
+  <si>
+    <t>33. How to check DB version and version at init DB?</t>
+  </si>
+  <si>
+    <t>To check the version:
+psql&gt; select version();
+or
+postgres –gp-version
+To check gp version at install:
+psql&gt; select * from gp_version_at_initdb;</t>
+  </si>
+  <si>
+    <t>34. How to see the value of GUC?</t>
+  </si>
+  <si>
+    <t>By connecting GPDB database using psql query catalog or do show parameter.
+Example:
+gpdb# select name,setting from pg_settings where name=’GUC’;
+or
+gpdb# show ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35. What is the location of pg_hba/logfile/master_data_directory? </t>
+  </si>
+  <si>
+    <t>cd $MASTER_DATA_DIRECTORY – Master direcoty.
+pg_hba.conf and postgres.conf location and other GPDB internal directories.
+cd $MASTER_DATA_DIRECTORY/pg_logs - Master database logfiles location.</t>
+  </si>
+  <si>
+    <t>36. How to find errors / fatal from log files?</t>
+  </si>
+  <si>
+    <t>grep for ERRORS, FATAL, SIGSEGV in pg_logs directory.</t>
+  </si>
+  <si>
+    <t>37. What is a vacuum and when should I run this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VACUUM reclaims storage occupied by deleted tuples. In normal GPDB operation, tuples that are deleted or obsoleted by an update are not physically removed from their table. They remain present on the disk until a VACUUM is done. Therefore, it is necessary to do VACUUM periodically, especially on a frequently updated table.
+</t>
+  </si>
+  <si>
+    <t>38. What is the difference between vacuum and vacuum full?</t>
+  </si>
+  <si>
+    <t>Unless you need to return space to the OS so that other tables or other parts of the system can use that space, you should use VACUUM instead of VACUUM FULL.
+VACUUM FULL is only needed when you have a table that is mostly dead rows, that is, the vast majority of its contents have been deleted.
+Even then, there is no point using VACUUM FULL unless you urgently need that disk space back for other things or you expect that the table will never again grow to its past size. Do not use it for table optimization or periodic maintenance as it is counterproductive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39. What is Analyze and how frequently should I run this?
+</t>
+  </si>
+  <si>
+    <t>ANALYZE collects statistics about the contents of tables in the database, and stores the results in the system table pg_statistic. Subsequently, the query planner uses these statistics to help determine the most efficient execution plans for queries.
+It is a good idea to run ANALYZE periodically, or just after making major changes in the contents of a table. Accurate statistics will help the query planner to choose the most appropriate query plan, and thereby improve the speed of query processing. A common strategy is to run VACUUM and ANALYZE once a day during a low-usage time of day.</t>
+  </si>
+  <si>
+    <t>40. What are resource queues?</t>
+  </si>
+  <si>
+    <t>Resource queues are used to manage Greenplum database workload management. All user/queries can be prioritized using Resource queues. Refer to Admin guide for more details.</t>
+  </si>
+  <si>
+    <t>41. What is gp_toolkit?</t>
+  </si>
+  <si>
+    <t>The gp_toolkit is a database schema, which has many tables, views and functions to better manage Greenplum Database when DB is up. In 3.x earlier versions, it was referred to as gp_jetpack.</t>
+  </si>
+  <si>
+    <t>42. How to generate DDL for a table?</t>
+  </si>
+  <si>
+    <t>Use pg_dump utility to generate DDL.
+Example:
+pg_dump -t njonna.accounts -s -f ddl_accounts.sql
+Where:
+-f ddl_accounts.sql is output file.
+-t njonna.accounts is table name with schema njonna.
+-s dump only schema no data</t>
+  </si>
+  <si>
+    <t>43. What are the tools available in Greenplum to take backup and restores?</t>
+  </si>
+  <si>
+    <t>For non-parallel backups:
+Use postgres utilities (pg_dump, pg_dumpall for backup, and pg_restore for restore).
+Another useful command for getting data out of the database is the COPY to.
+For parallel backups:
+gp_dump and gpcrondump for backups and gp_restore for restore process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44. How do I clone my production databaes to PreProd / QA environment?
+</t>
+  </si>
+  <si>
+    <t>If Prod and QA on same GPDB cluster, use CREATE database template.
+If Prod and QA are on different clusters, use backup and restore utilities.</t>
+  </si>
+  <si>
+    <t>45. What is the difference between pg_dump and gp_dump?</t>
+  </si>
+  <si>
+    <t>pg_dump – Non-parallel backup utility, you need a big file system where the backup will be created in the master node only.
+gp_dump – Parallel backup utility. The backup will be created in the master and segments file system.</t>
+  </si>
+  <si>
+    <t>46. What is gpcrondump?</t>
+  </si>
+  <si>
+    <t>A wrapper utility for gp_dump, which can be called directly or from a crontab entry.
+Example: gpcrondump -x</t>
+  </si>
+  <si>
+    <t>47. What are the backup options available at OS level?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solaris: zfs snapshots at the file system level.
+All OS: gpcrondump / gp_dump.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48. My SQL query is running very slow, it was running fine yesterday what should I do? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that your connection to the Greenplum cluster is still good if you are using a remote client. You can do this by running the SQL locally to the GP cluster.
+Check that the system tables and user tables involved are not bloated or skewed. Read jetpack or Greenplum toolkit documentation about how to do this.
+Check with your DBA that the Greenplum interconnect is still performing correctly.
+This can be done by checking for dropped packets on the interconnect “netstat -i” and by running gpcheckperf. It is also possible that a segment is experiencing hardware problems, which can be found in the output of dmesg or in
+cd $MASTER_DATA_DIRECTORY – Master direcoty.
+pg_hba.conf and postgres.conf location and other GPDB internal directories.
+cd $MASTER_DATA_DIRECTORY/pg_logs - Master database logfiles location.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49. How to turn on timing, and checking how much time a query takes to execute? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can turn in timing per session before you run your SQL with the timing command.
+You can run explain analysis against your SQL statement to get the timing.
+</t>
+  </si>
+  <si>
+    <t>50. How to trace child processes on the segment server?</t>
+  </si>
+  <si>
+    <t>When the session starts in master and segments, all the child processes in segments will be identified with a master session_id connection string (con+sess_id).
+For example:
+gpdb=# select * from pg_Stat_activity;
+datid | datname | procpid | sess_id |.. ..
+---+---+---+---+
+16986 | gpdb | 18162 | 76134 | .. ..
+In all segments child processes for session 76134:
+[gpadmin@stinger2]/export/home/gpadmin/gp40&gt;gpssh -f host_file /usr/ucb/ps -auxww |grep con76134
+[stinger2] gpadmin 18162 1.7 6.0386000124480 ? S 09:57:55 0:04 postgres: port 4000, gpadmin gpdb [local] con76134 [local] cmd3 CREATE DATABASE…………………………………
+[stinger2] gpadmin 18625 0.3 2.726056455932 ? S 10:01:56 0:01 postgres: port 40000, gpadmin gpdb 10.5.202.12(18864) con76134 seg0 cmd4 MPPEXEC UTILITY………………………….
+[stinger2] gpadmin 18669 0.0 0.1 3624 752 pts/2 S 10:02:36 0:00 grep con76134
+[stinger3] gpadmin 22289 0.8 9.4531860196404 ? S 09:36:20 0:05 postgres: port 40000, gpadmin gpdb 10.5.202.12(18866) con76134 seg1 cmd4 MPPEXEC UTILITY………………………….
+51. How to check if my session queries are running or waiting on locks?
+Check the “waiting” column in pg_stat_activity and the “granted” column in pg_locks for any object-level locks.</t>
+  </si>
+  <si>
+    <t>51. How to check if my session queries are running or waiting on locks?</t>
+  </si>
+  <si>
+    <t>Check the “waiting” column in pg_stat_activity and the “granted” column in pg_locks for any object-level locks.</t>
+  </si>
+  <si>
+    <t>52. What kind of locks should we focus on the MPP system when the system is slow /hung?</t>
+  </si>
+  <si>
+    <t>Locks that are held for a very long time and multiple other queries are waiting for that lock also.</t>
+  </si>
+  <si>
+    <t>53. How do I monitor user activity history in the Greenplum database?</t>
+  </si>
+  <si>
+    <t>Use Greenplum performance monitor (gpperfmon), which has GUI to monitor and query performance history.</t>
+  </si>
+  <si>
+    <t>54. What is the Greenplum performance monitor and how to install it?</t>
+  </si>
+  <si>
+    <t>Its a monitoring tool that collects statistics on system and query performance and builds historical data.</t>
+  </si>
+  <si>
+    <t>55. when the client connects does he connect to the Master or segment node?</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>56. Can you explain the process of data migration from Oracle to Greenplum?</t>
+  </si>
+  <si>
+    <t>There are many ways. The simplest steps are Unload data into csv files, create tables in the Greenplum database corresponding to Oracle, Create an external table,  start gpfdist pointing to external table location, Load data into Greenplum. You can also use gpload utility. Gpload creates an external table at runtime.</t>
+  </si>
+  <si>
+    <t>57. Which command would you use to back up a database?</t>
+  </si>
+  <si>
+    <t>gp_dump,  gpcrondump, pg_dump, pg_dumpall, copy</t>
+  </si>
+  <si>
+    <t>58. When you restore from a backup taken from gp_dump, can you import a table?</t>
+  </si>
+  <si>
+    <t>NO. Yes if during the gp_dump you backed up one table only.</t>
+  </si>
+  <si>
+    <t>59. Can you open and view a dump file?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>60. Which option would you use to export the DDL of the database or table?</t>
+  </si>
+  <si>
+    <t>-s (-s | –schema-only Dump only the object definitions (schema), not data.)</t>
+  </si>
+  <si>
+    <t>61. When a user submits a query, where does it run in Master or segment nodes?</t>
+  </si>
+  <si>
+    <t>Segment nodes</t>
+  </si>
+  <si>
+    <t>62. If you configure you are with Master and Segment nodes, where would the data reside?</t>
+  </si>
+  <si>
+    <t>63. What would you do when a user or users are complaining that a particular query is running slow?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look at the query plan
+Look at the stats of the table/tables in the query
+look at the table distribution keys and joins in the query
+look at the network performance
+look at the resource queues
+look at the interconnect performance
+look at the join order of tables in the query
+look at the query itself i.e. if it can be written in a more efficient way
+</t>
+  </si>
+  <si>
+    <t>64. What would you do to gather statistics in the database? as well as reclaim the space?</t>
+  </si>
+  <si>
+    <t>VACUUM FULL, CTAS.
+A VACUUM FULL will reclaim all expired row space, but is a very expensive operation and may take an unacceptably long time to finish on large, distributed Greenplum Database tables. If you do get into a situation where the free space map has overflowed, it may be more timely to recreate the table with a CREATE TABLE AS statement and drop the old table.
+A VACUUM FULL is not recommended in Greenplum Database</t>
+  </si>
+  <si>
+    <t>65. How would you implement compression and explain possibly the compression types?</t>
+  </si>
+  <si>
+    <t>There are two types of in-database compression available in the Greenplum Database for append-only tables:
+Table-level compression is applied to an entire table.
+Column-level compression is applied to a specific column. You can apply different column-level compression algorithms to different columns.
+66. What are the major differences between Oracle and Greenplum?
+Oracle is a relational database. Greenplum is MPP nature. Greenplum is shared-nothing architecture. There are many other differences in terms of functionality and behavior.</t>
+  </si>
+  <si>
+    <t>67. What is good and bad about the Greenplum, compared to Oracle and Greenplum?</t>
+  </si>
+  <si>
+    <t>Greenplum is built on top of Postgresql. It is a shared-nothing, MPP architecture best for data warehousing env. Good for big data analytics purposes.
+Oracle is an all-purpose database.</t>
+  </si>
+  <si>
+    <t>68. How would troubleshoot an issue/error/problem when there is no one available to help you or you are all by yourself?</t>
+  </si>
+  <si>
+    <t>Look at the log files. querying the GP perfmon and tools schema for various data and statistics.</t>
+  </si>
+  <si>
+    <t>69. Do you know PL/pgsql?</t>
+  </si>
+  <si>
+    <t>70. Can you write stored procedures in Greenplum/Postgres?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>71. Can you create stored functions and use them in Greenplum?</t>
+  </si>
+  <si>
+    <t>72. Can you do partitioning in Greenplum tables?</t>
+  </si>
+  <si>
+    <t>73. Which parameters can you use to manage workload in a Greenplum database?</t>
+  </si>
+  <si>
+    <t>workload management is done by creating resource queues and assigning various limits.</t>
+  </si>
+  <si>
+    <t>74. Tell me some of the aspects/implementations/configurations you have done in Greenplum?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A configuration like port change, Active directory authentication, pg_hba.conf changes, postgresql.conf changes, gpfdist, etc.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75. How to Check bloated tables ? </t>
+  </si>
+  <si>
+    <t>SELECT * FROM gp_toolkit.gp_bloat_diag;
+#!/bin/bash
+DBNAME="&lt;database_name&gt;"
+SYSTABLES="' pg_catalog.' || relname || ';' from pg_class a, pg_namespace b \
+where a.relnamespace=b.oid and b.nspname='pg_catalog' and a.relkind='r'"
+reindexdb -s -d $DBNAME
+psql -tc "SELECT 'VACUUM' || $SYSTABLES" $DBNAME | psql -a $DBNAME
+analyzedb -s pg_catalog -d $DBNAME</t>
   </si>
 </sst>
 </file>
@@ -384,11 +717,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A9F994-8A4C-4B5B-9BE7-A89A4E7E7D13}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A2:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,196 +1049,188 @@
     <col min="2" max="2" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -915,36 +1241,396 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>136</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDF034F-D93E-4E20-822D-047F8444E9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C6677-D9C8-4406-ACC6-7DD7D8091AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -1037,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A9F994-8A4C-4B5B-9BE7-A89A4E7E7D13}">
-  <dimension ref="A2:B74"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,6 +1049,14 @@
     <col min="2" max="2" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57C6677-D9C8-4406-ACC6-7DD7D8091AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035F6487-ADEC-42F3-9D9F-6EA611669F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="142">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -683,15 +684,50 @@
 psql -tc "SELECT 'VACUUM' || $SYSTABLES" $DBNAME | psql -a $DBNAME
 analyzedb -s pg_catalog -d $DBNAME</t>
   </si>
+  <si>
+    <t>vacuum_old_tables.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+# Author: Marc Paquette
+# Date 2013-04-03
+# Prevents tables from hitting maximum transaction age
+MAX_AGE=170000000
+##find databases with high transaction age
+DATABASES=$( psql -t -c "SELECT  datname FROM pg_database where age(datfrozenxid) &gt;= $MAX_AGE union SELECT datname FROM gp_dist_random('pg_database')  where age(datfrozenxid) &gt;= $MAX_AGE" -d template1)
+###goes through high age databases, finds high age databases
+for DATABASE in $DATABASES
+do
+ TABLES=$(psql -t -c "select relname from pg_class where relkind ='r' and relstorage != 'x' and  age(relfrozenxid)&gt;  $MAX_AGE union select  relname from gp_dist_random('pg_class') where relkind ='r' and relstorage != 'x' and  age(relfrozenxid)&gt;  $MAX_AGE;" -d $DATABASE)
+ ######Begin Inner Loop for Vacuum
+ for TABLE in $TABLES
+ do
+  ###Vaccuums databses, analyze for good measure
+  psql -e -t -c "VACUUM ANALYZE $TABLE" -d $DATABASE
+  ###Reindex as it's just good practice
+  psql -e -t -c "REINDEX TABLE  $TABLE" -d $DATABASE
+ done
+ ######End Inner Loop for Vacuum
+done;
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -714,17 +750,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1039,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A9F994-8A4C-4B5B-9BE7-A89A4E7E7D13}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1644,4 +1683,53 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="199.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" tooltip="vacuum_old_tables.sh" display="https://github.com/MarcPaquette/Greenplum-Management-Scripts/blob/master/vacuum_old_tables.sh" xr:uid="{FDB481CA-5D4D-4210-A8C9-BBF7F4EC59BC}"/>
+    <hyperlink ref="A2" r:id="rId2" tooltip="vacuum_old_tables.sh" display="https://github.com/MarcPaquette/Greenplum-Management-Scripts/blob/master/vacuum_old_tables.sh" xr:uid="{DBDB9199-086A-4EAE-A0F2-AA17F43959BE}"/>
+    <hyperlink ref="A3" r:id="rId3" tooltip="vacuum_old_tables.sh" display="https://github.com/MarcPaquette/Greenplum-Management-Scripts/blob/master/vacuum_old_tables.sh" xr:uid="{C0FC25FE-B8DC-4281-BB7A-BA393717FEF5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035F6487-ADEC-42F3-9D9F-6EA611669F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687FA9EF-EAD9-4220-9C2F-BD3116E1059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -685,9 +685,6 @@
 analyzedb -s pg_catalog -d $DBNAME</t>
   </si>
   <si>
-    <t>vacuum_old_tables.sh</t>
-  </si>
-  <si>
     <t xml:space="preserve">#!/bin/bash
 # Author: Marc Paquette
 # Date 2013-04-03
@@ -711,23 +708,166 @@
 done;
 </t>
   </si>
+  <si>
+    <t>Vacuum | Re-Index Old Tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+gpssh `psql -R' ' -A  -t -c " select distinct '-h ' || hostname from gp_segment_configuration ;"` </t>
+  </si>
+  <si>
+    <t>No Hostfile gpssh.sh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+#Author: Marc Paquette
+#Date 2013-04-05
+#kill dump in master
+echo 'kill on master'
+ps -ef | grep gpcrondump | grep -v grep | grep -v gpcrondumpkill | awk '{print $2}'| xargs \kill 2&gt; /dev/null 
+echo 'sleeping' 
+sleep 10
+#kill -11 dump in master
+echo 'kill -11 on master'
+ps -ef | grep gpcrondump | grep -v grep | grep -v gpcrondumpkill |awk '{print $2}'| xargs \kill -11 2&gt; /dev/null
+#kill dump in segment
+echo 'kill on segements'
+gpssh `psql -R' ' -A -t -c "select distinct '-h ' || hostname from gp_segment_configuration"` -e "ps -ef|grep gpadmin|grep gp_dump|grep -v grep|awk '{print \$2}' | xargs \kill " | egrep -v 'ps|usage|kill'
+echo 'sleeping'
+sleep 10
+#kill dump in segment
+echo 'kill -11 on segments'
+gpssh `psql -R' ' -A -t -c "select distinct '-h ' || hostname from gp_segment_configuration"` -e "ps -ef|grep gpadmin|grep gp_dump|grep -v grep|awk '{print \$2}' | xargs \kill -11 " | egrep -v 'ps|usage|kill'
+</t>
+  </si>
+  <si>
+    <t>gpcrondump kill</t>
+  </si>
+  <si>
+    <t>catalog bloat fixer</t>
+  </si>
+  <si>
+    <t>#!/bin/bash
+ORPHAN="ps auwxx | grep postgres |grep con[0-9]  |`psql -R'|' -A  -t -c "select ' grep -v con'|| sess_id::text from pg_stat_activity;" `"
+gpssh `psql -R' ' -A  -t -c " select distinct '-h ' || hostname from gp_segment_configuration ;"` -e $ORPHAN</t>
+  </si>
+  <si>
+    <t>orphan proccess finder</t>
+  </si>
+  <si>
+    <t>#!/bin/bash
+set -e
+logfile="$1"
+if [ "$logfile" == "" ]; then
+ echo "ERROR: Please provide the logfile to save logs"
+ exit 1
+fi
+start_maintain()
+{
+ now=$(date +"%Y-%m-%d %H:%M:%S.%s")
+ echo "Maintain Start: $now" &gt; $logfile
+ current_date=$(date +%Y%m%d)
+}
+end_maintain()
+{
+ now=$(date +"%Y-%m-%d %H:%M:%S.%s")
+ echo "Maintain End: $now" &gt;&gt; $logfile
+}
+log_start()
+{
+ T="$(date +%s%N)"
+}
+log_end()
+{
+ #duration
+ T="$(($(date +%s%N)-T))"
+ # seconds
+ S="$((T/1000000000))"
+ # milliseconds
+ M="$((T/1000000))"
+ printf "$current_date|$db|$step|%02d:%02d:%02d.%03d\n" "$((S/3600%24))" "$((S/60%60))" "$((S%60))" "${M}"
+}
+vacuum_analyze_catalog()
+{
+ step="vacuum_analyze_catalog"
+ echo "VACUUM ANALYZE pg_catalog" &gt;&gt; $logfile
+ log_start
+ psql -d $db -t -A -c "SELECT 'VACUUM ANALYZE \"' || n.nspname || '\".\"' || c.relname || '\";' FROM pg_class c JOIN pg_namespace n ON c.relnamespace = n.oid WHERE n.nspname = 'pg_catalog' AND c.relkind = 'r'" | psql -d $db -e &gt;&gt; $logfile 2&gt;&amp;1
+ log_end
+}
+reindex_catalog()
+{
+ step="reindex_catalog"
+ echo "** REINDEX the pg_catalog" &gt;&gt; $logfile 2&gt;&amp;1
+ log_start
+ psql -d $db -c "REINDEX SYSTEM \"$db\"" &gt;&gt; $logfile 2&gt;&amp;1
+ log_end
+}
+vacuum_near_freeze_age()
+{
+ step="vacuum_near_freeze_age"
+ echo "** VACUUM all tables near the vacuum_freeze_min_age to prevent transaction wraparound" &gt;&gt; $logfile
+ log_start
+ vacuum_freeze_min_age=$(psql -d $db -t -A -c "show vacuum_freeze_min_age;")
+ psql -d $db -t -A -c "SELECT 'VACUUM \"' || n.nspname || '\".\"' || c.relname || '\";' FROM pg_class c join pg_namespace n ON c.relnamespace = n.oid WHERE age(relfrozenxid) &gt; $vacuum_freeze_min_age AND c.relkind = 'r' AND c.relstorage &lt;&gt; 'x'" | psql -d $db -e &gt;&gt; $logfile 2&gt;&amp;1
+ log_end
+}
+vacuum_heap_with_bloat()
+{
+ step="vacuum_heap_with_bloat"
+ echo "** VACUUM all heap tables with bloat" &gt;&gt; $logfile
+ log_start
+ psql -d $db -t -A -c "SELECT 'VACUUM \"' || bdinspname || '\".\"' || bdirelname || '\";' FROM gp_toolkit.gp_bloat_diag WHERE bdinspname &lt;&gt; 'pg_catalog'" | psql -d $db -e &gt;&gt; $logfile 2&gt;&amp;1
+ log_end
+}
+vacuum_ao_with_bloat()
+{
+ step="vacuum_ao_with_bloat"
+ echo "** VACUUM all append optimized tables with bloat" &gt;&gt; $logfile
+ log_start
+ psql -d $db -t -A -c "SELECT 'VACUUM ANALYZE \"' || schema_name || '\".\"' || table_name || '\";'
+ FROM    (
+  SELECT n.nspname AS schema_name, c.relname AS table_name, c.reltuples AS num_rows, (gp_toolkit.__gp_aovisimap_hidden_info(c.oid)).total_tupcount AS ao_num_rows
+  FROM pg_appendonly a
+  JOIN pg_class c ON c.oid = a.relid
+  JOIN pg_namespace n ON c.relnamespace = n.oid
+  WHERE c.relkind = 'r' 
+  AND c.reltuples &gt; 0
+  ) AS sub
+ GROUP BY schema_name, table_name, num_rows
+ HAVING sum(ao_num_rows) &gt; num_rows * 1.05" | psql -d $db -e &gt;&gt; $logfile 2&gt;&amp;1
+ log_end
+}
+analyze_db()
+{
+ step="analyze_db"
+ echo "** ANALYZE user tables with analyzedb" &gt;&gt; $logfile
+ log_start
+ echo "analyzedb -d $db -a" &gt;&gt; $logfile
+ analyzedb -d $db -a &gt;&gt; $logfile 2&gt;&amp;1
+ log_end
+}
+start_maintain
+for db in $(psql -d postgres -t -A -c "SELECT datname FROM pg_database WHERE datname NOT IN ('postgres', 'template0', 'template1') ORDER BY datname"); do
+ echo "** MAINTAIN database $db" &gt;&gt; $logfile
+ vacuum_analyze_catalog
+ reindex_catalog
+ vacuum_near_freeze_age
+ vacuum_heap_with_bloat
+ vacuum_ao_with_bloat
+ analyze_db
+done
+end_maintain</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -750,9 +890,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -760,10 +899,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1687,9 +1825,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1701,35 +1839,46 @@
   <sheetData>
     <row r="1" spans="1:2" ht="405" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" tooltip="vacuum_old_tables.sh" display="https://github.com/MarcPaquette/Greenplum-Management-Scripts/blob/master/vacuum_old_tables.sh" xr:uid="{FDB481CA-5D4D-4210-A8C9-BBF7F4EC59BC}"/>
-    <hyperlink ref="A2" r:id="rId2" tooltip="vacuum_old_tables.sh" display="https://github.com/MarcPaquette/Greenplum-Management-Scripts/blob/master/vacuum_old_tables.sh" xr:uid="{DBDB9199-086A-4EAE-A0F2-AA17F43959BE}"/>
-    <hyperlink ref="A3" r:id="rId3" tooltip="vacuum_old_tables.sh" display="https://github.com/MarcPaquette/Greenplum-Management-Scripts/blob/master/vacuum_old_tables.sh" xr:uid="{C0FC25FE-B8DC-4281-BB7A-BA393717FEF5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687FA9EF-EAD9-4220-9C2F-BD3116E1059B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547026A4-3E3D-43EA-A195-5C4B091AE24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -859,15 +860,29 @@
 done
 end_maintain</t>
   </si>
+  <si>
+    <t>Install Greenplum on VMware Workstation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/pBjBvz3Y71k</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -890,8 +905,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -899,9 +915,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1827,7 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1838,7 +1855,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="405" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1846,7 +1863,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1854,7 +1871,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1881,4 +1898,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4949F92-3536-4D23-844F-687E8521DA6A}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{3FEB552B-9035-40E8-8976-5824FF968F0C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547026A4-3E3D-43EA-A195-5C4B091AE24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F358597-A47F-4F59-971C-5EE9F60DF58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="160">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -686,185 +686,347 @@
 analyzedb -s pg_catalog -d $DBNAME</t>
   </si>
   <si>
+    <t>Vacuum | Re-Index Old Tables</t>
+  </si>
+  <si>
     <t xml:space="preserve">#!/bin/bash
-# Author: Marc Paquette
-# Date 2013-04-03
+gpssh `psql -R' ' -A  -t -c " select distinct '-h ' || hostname from gp_segment_configuration ;"` </t>
+  </si>
+  <si>
+    <t>No Hostfile gpssh.sh</t>
+  </si>
+  <si>
+    <t>gpcrondump kill</t>
+  </si>
+  <si>
+    <t>catalog bloat fixer</t>
+  </si>
+  <si>
+    <t>orphan proccess finder</t>
+  </si>
+  <si>
+    <t>Install Greenplum on VMware Workstation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/pBjBvz3Y71k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+# Author: Kishan Panchal
 # Prevents tables from hitting maximum transaction age
 MAX_AGE=170000000
-##find databases with high transaction age
-DATABASES=$( psql -t -c "SELECT  datname FROM pg_database where age(datfrozenxid) &gt;= $MAX_AGE union SELECT datname FROM gp_dist_random('pg_database')  where age(datfrozenxid) &gt;= $MAX_AGE" -d template1)
-###goes through high age databases, finds high age databases
+## Find databases with high transaction age
+DATABASES=$(psql -t -c "SELECT datname FROM pg_database WHERE age(datfrozenxid) &gt;= $MAX_AGE;" -d template1)
+# Create a temporary directory to store the Excel file
+TMP_DIR=$(mktemp -d)
+# Go through high age databases, find high age tables
 for DATABASE in $DATABASES
 do
- TABLES=$(psql -t -c "select relname from pg_class where relkind ='r' and relstorage != 'x' and  age(relfrozenxid)&gt;  $MAX_AGE union select  relname from gp_dist_random('pg_class') where relkind ='r' and relstorage != 'x' and  age(relfrozenxid)&gt;  $MAX_AGE;" -d $DATABASE)
- ######Begin Inner Loop for Vacuum
- for TABLE in $TABLES
- do
-  ###Vaccuums databses, analyze for good measure
-  psql -e -t -c "VACUUM ANALYZE $TABLE" -d $DATABASE
-  ###Reindex as it's just good practice
-  psql -e -t -c "REINDEX TABLE  $TABLE" -d $DATABASE
- done
- ######End Inner Loop for Vacuum
-done;
+    TABLES=$(psql -t -c "SELECT relname FROM pg_class WHERE relkind = 'r' AND relstorage != 'x' AND age(relfrozenxid) &gt; $MAX_AGE;" -d $DATABASE)
+    # Begin inner loop for vacuum
+    for TABLE in $TABLES
+    do
+        # Vacuum databases and analyze for good measure
+        psql -e -t -c "VACUUM ANALYZE $TABLE;" -d $DATABASE
+        # Reindex as it's just good practice
+        psql -e -t -c "REINDEX TABLE $TABLE;" -d $DATABASE
+        # Append table name to the Excel file
+        echo "$DATABASE,$TABLE" &gt;&gt; "$TMP_DIR/tables.csv"
+    done
+    # End inner loop for vacuum
+done
+# Send email with the Excel file attached
+echo "Please find the attached Excel file containing the vacuumed tables." | mailx -s "Vacuumed Tables Report" -a "$TMP_DIR/tables.csv" your_email@example.com
+# Remove temporary directory
+rm -rf "$TMP_DIR"
 </t>
   </si>
   <si>
-    <t>Vacuum | Re-Index Old Tables</t>
-  </si>
-  <si>
     <t xml:space="preserve">#!/bin/bash
-gpssh `psql -R' ' -A  -t -c " select distinct '-h ' || hostname from gp_segment_configuration ;"` </t>
-  </si>
-  <si>
-    <t>No Hostfile gpssh.sh</t>
+# Author: Kishan Panchal
+# gpcrondump 
+# Kill dump in master
+echo 'Killing on master'
+killall -q -w gpcrondump
+echo 'Sleeping'
+sleep 10
+# Kill -11 dump in master
+echo 'Killing -11 on master'
+killall -q -11 gpcrondump
+# Kill dump in segments
+echo 'Killing on segments'
+gpssh -f &lt;(psql -R' ' -A -t -c "SELECT DISTINCT 'gpadmin@' || hostname FROM gp_segment_configuration") -e "killall -q -w gp_dump" | egrep -v 'ps|usage|kill'
+echo 'Sleeping'
+sleep 10
+# Kill -11 dump in segments
+echo 'Killing -11 on segments'
+gpssh -f &lt;(psql -R' ' -A -t -c "SELECT DISTINCT 'gpadmin@' || hostname FROM gp_segment_configuration") -e "killall -q -11 gp_dump" | egrep -v 'ps|usage|kill'
+</t>
   </si>
   <si>
     <t xml:space="preserve">#!/bin/bash
-#Author: Marc Paquette
-#Date 2013-04-05
-#kill dump in master
-echo 'kill on master'
-ps -ef | grep gpcrondump | grep -v grep | grep -v gpcrondumpkill | awk '{print $2}'| xargs \kill 2&gt; /dev/null 
-echo 'sleeping' 
-sleep 10
-#kill -11 dump in master
-echo 'kill -11 on master'
-ps -ef | grep gpcrondump | grep -v grep | grep -v gpcrondumpkill |awk '{print $2}'| xargs \kill -11 2&gt; /dev/null
-#kill dump in segment
-echo 'kill on segements'
-gpssh `psql -R' ' -A -t -c "select distinct '-h ' || hostname from gp_segment_configuration"` -e "ps -ef|grep gpadmin|grep gp_dump|grep -v grep|awk '{print \$2}' | xargs \kill " | egrep -v 'ps|usage|kill'
-echo 'sleeping'
-sleep 10
-#kill dump in segment
-echo 'kill -11 on segments'
-gpssh `psql -R' ' -A -t -c "select distinct '-h ' || hostname from gp_segment_configuration"` -e "ps -ef|grep gpadmin|grep gp_dump|grep -v grep|awk '{print \$2}' | xargs \kill -11 " | egrep -v 'ps|usage|kill'
-</t>
-  </si>
-  <si>
-    <t>gpcrondump kill</t>
-  </si>
-  <si>
-    <t>catalog bloat fixer</t>
-  </si>
-  <si>
-    <t>#!/bin/bash
-ORPHAN="ps auwxx | grep postgres |grep con[0-9]  |`psql -R'|' -A  -t -c "select ' grep -v con'|| sess_id::text from pg_stat_activity;" `"
-gpssh `psql -R' ' -A  -t -c " select distinct '-h ' || hostname from gp_segment_configuration ;"` -e $ORPHAN</t>
-  </si>
-  <si>
-    <t>orphan proccess finder</t>
-  </si>
-  <si>
-    <t>#!/bin/bash
 set -e
+if [ -z "$1" ]; then
+    echo "ERROR: Please provide the logfile to save logs"
+    exit 1
+fi
 logfile="$1"
-if [ "$logfile" == "" ]; then
- echo "ERROR: Please provide the logfile to save logs"
- exit 1
-fi
-start_maintain()
-{
- now=$(date +"%Y-%m-%d %H:%M:%S.%s")
- echo "Maintain Start: $now" &gt; $logfile
- current_date=$(date +%Y%m%d)
+current_date=$(date +%Y%m%d)
+start_maintain() {
+    echo "Maintain Start: $(date +'%Y-%m-%d %H:%M:%S.%s')" &gt; "$logfile"
 }
-end_maintain()
-{
- now=$(date +"%Y-%m-%d %H:%M:%S.%s")
- echo "Maintain End: $now" &gt;&gt; $logfile
+end_maintain() {
+    echo "Maintain End: $(date +'%Y-%m-%d %H:%M:%S.%s')" &gt;&gt; "$logfile"
 }
-log_start()
-{
- T="$(date +%s%N)"
+log_start() {
+    T=$(date +%s%N)
 }
-log_end()
-{
- #duration
- T="$(($(date +%s%N)-T))"
- # seconds
- S="$((T/1000000000))"
- # milliseconds
- M="$((T/1000000))"
- printf "$current_date|$db|$step|%02d:%02d:%02d.%03d\n" "$((S/3600%24))" "$((S/60%60))" "$((S%60))" "${M}"
+log_end() {
+    T=$(($(date +%s%N) - T))
+    S=$((T / 1000000000))
+    M=$((T / 1000000 % 1000))
+    printf "%s|%s|%s|%02d:%02d:%02d.%03d\n" "$current_date" "$db" "$step" "$((S / 3600 % 24))" "$((S / 60 % 60))" "$((S % 60))" "$M"
 }
-vacuum_analyze_catalog()
-{
- step="vacuum_analyze_catalog"
- echo "VACUUM ANALYZE pg_catalog" &gt;&gt; $logfile
- log_start
- psql -d $db -t -A -c "SELECT 'VACUUM ANALYZE \"' || n.nspname || '\".\"' || c.relname || '\";' FROM pg_class c JOIN pg_namespace n ON c.relnamespace = n.oid WHERE n.nspname = 'pg_catalog' AND c.relkind = 'r'" | psql -d $db -e &gt;&gt; $logfile 2&gt;&amp;1
- log_end
+vacuum_analyze_catalog() {
+    step="vacuum_analyze_catalog"
+    echo "VACUUM ANALYZE pg_catalog" &gt;&gt; "$logfile"
+    log_start
+    psql -d "$db" -t -A -c "SELECT 'VACUUM ANALYZE \"' || n.nspname || '\".\"' || c.relname || '\"";' FROM pg_class c JOIN pg_namespace n ON c.relnamespace = n.oid WHERE n.nspname = 'pg_catalog' AND c.relkind = 'r'" | psql -d "$db" -e &gt;&gt; "$logfile" 2&gt;&amp;1
+    log_end
 }
-reindex_catalog()
-{
- step="reindex_catalog"
- echo "** REINDEX the pg_catalog" &gt;&gt; $logfile 2&gt;&amp;1
- log_start
- psql -d $db -c "REINDEX SYSTEM \"$db\"" &gt;&gt; $logfile 2&gt;&amp;1
- log_end
+reindex_catalog() {
+    step="reindex_catalog"
+    echo "** REINDEX the pg_catalog" &gt;&gt; "$logfile" 2&gt;&amp;1
+    log_start
+    psql -d "$db" -c "REINDEX SYSTEM \"$db\"" &gt;&gt; "$logfile" 2&gt;&amp;1
+    log_end
 }
-vacuum_near_freeze_age()
-{
- step="vacuum_near_freeze_age"
- echo "** VACUUM all tables near the vacuum_freeze_min_age to prevent transaction wraparound" &gt;&gt; $logfile
- log_start
- vacuum_freeze_min_age=$(psql -d $db -t -A -c "show vacuum_freeze_min_age;")
- psql -d $db -t -A -c "SELECT 'VACUUM \"' || n.nspname || '\".\"' || c.relname || '\";' FROM pg_class c join pg_namespace n ON c.relnamespace = n.oid WHERE age(relfrozenxid) &gt; $vacuum_freeze_min_age AND c.relkind = 'r' AND c.relstorage &lt;&gt; 'x'" | psql -d $db -e &gt;&gt; $logfile 2&gt;&amp;1
- log_end
+vacuum_near_freeze_age() {
+    step="vacuum_near_freeze_age"
+    echo "** VACUUM all tables near the vacuum_freeze_min_age to prevent transaction wraparound" &gt;&gt; "$logfile"
+    log_start
+    vacuum_freeze_min_age=$(psql -d "$db" -t -A -c "show vacuum_freeze_min_age;")
+    psql -d "$db" -t -A -c "SELECT 'VACUUM \"' || n.nspname || '\".\"' || c.relname || '\"";' FROM pg_class c JOIN pg_namespace n ON c.relnamespace = n.oid WHERE age(relfrozenxid) &gt; $vacuum_freeze_min_age AND c.relkind = 'r' AND c.relstorage &lt;&gt; 'x'" | psql -d "$db" -e &gt;&gt; "$logfile" 2&gt;&amp;1
+    log_end
 }
-vacuum_heap_with_bloat()
-{
- step="vacuum_heap_with_bloat"
- echo "** VACUUM all heap tables with bloat" &gt;&gt; $logfile
- log_start
- psql -d $db -t -A -c "SELECT 'VACUUM \"' || bdinspname || '\".\"' || bdirelname || '\";' FROM gp_toolkit.gp_bloat_diag WHERE bdinspname &lt;&gt; 'pg_catalog'" | psql -d $db -e &gt;&gt; $logfile 2&gt;&amp;1
- log_end
+vacuum_heap_with_bloat() {
+    step="vacuum_heap_with_bloat"
+    echo "** VACUUM all heap tables with bloat" &gt;&gt; "$logfile"
+    log_start
+    psql -d "$db" -t -A -c "SELECT 'VACUUM \"' || bdinspname || '\".\"' || bdirelname || '\"";' FROM gp_toolkit.gp_bloat_diag WHERE bdinspname &lt;&gt; 'pg_catalog'" | psql -d "$db" -e &gt;&gt; "$logfile" 2&gt;&amp;1
+    log_end
 }
-vacuum_ao_with_bloat()
-{
- step="vacuum_ao_with_bloat"
- echo "** VACUUM all append optimized tables with bloat" &gt;&gt; $logfile
- log_start
- psql -d $db -t -A -c "SELECT 'VACUUM ANALYZE \"' || schema_name || '\".\"' || table_name || '\";'
- FROM    (
-  SELECT n.nspname AS schema_name, c.relname AS table_name, c.reltuples AS num_rows, (gp_toolkit.__gp_aovisimap_hidden_info(c.oid)).total_tupcount AS ao_num_rows
-  FROM pg_appendonly a
-  JOIN pg_class c ON c.oid = a.relid
-  JOIN pg_namespace n ON c.relnamespace = n.oid
-  WHERE c.relkind = 'r' 
-  AND c.reltuples &gt; 0
-  ) AS sub
- GROUP BY schema_name, table_name, num_rows
- HAVING sum(ao_num_rows) &gt; num_rows * 1.05" | psql -d $db -e &gt;&gt; $logfile 2&gt;&amp;1
- log_end
+vacuum_ao_with_bloat() {
+    step="vacuum_ao_with_bloat"
+    echo "** VACUUM all append optimized tables with bloat" &gt;&gt; "$logfile"
+    log_start
+    psql -d "$db" -t -A -c "SELECT 'VACUUM ANALYZE \"' || schema_name || '\".\"' || table_name || '\"";'
+    FROM (
+        SELECT n.nspname AS schema_name, c.relname AS table_name, c.reltuples AS num_rows, (gp_toolkit.__gp_aovisimap_hidden_info(c.oid)).total_tupcount AS ao_num_rows
+        FROM pg_appendonly a
+        JOIN pg_class c ON c.oid = a.relid
+        JOIN pg_namespace n ON c.relnamespace = n.oid
+        WHERE c.relkind = 'r' AND c.reltuples &gt; 0
+    ) AS sub
+    GROUP BY schema_name, table_name, num_rows
+    HAVING sum(ao_num_rows) &gt; num_rows * 1.05" | psql -d "$db" -e &gt;&gt; "$logfile" 2&gt;&amp;1
+    log_end
 }
-analyze_db()
-{
- step="analyze_db"
- echo "** ANALYZE user tables with analyzedb" &gt;&gt; $logfile
- log_start
- echo "analyzedb -d $db -a" &gt;&gt; $logfile
- analyzedb -d $db -a &gt;&gt; $logfile 2&gt;&amp;1
- log_end
+analyze_db() {
+    step="analyze_db"
+    echo "** ANALYZE user tables with analyzedb" &gt;&gt; "$logfile"
+    log_start
+    echo "analyzedb -d $db -a" &gt;&gt; "$logfile"
+    analyzedb -d "$db" -a &gt;&gt; "$logfile" 2&gt;&amp;1
+    log_end
 }
 start_maintain
 for db in $(psql -d postgres -t -A -c "SELECT datname FROM pg_database WHERE datname NOT IN ('postgres', 'template0', 'template1') ORDER BY datname"); do
- echo "** MAINTAIN database $db" &gt;&gt; $logfile
- vacuum_analyze_catalog
- reindex_catalog
- vacuum_near_freeze_age
- vacuum_heap_with_bloat
- vacuum_ao_with_bloat
- analyze_db
+    echo "** MAINTAIN database $db" &gt;&gt; "$logfile"
+    vacuum_analyze_catalog
+    reindex_catalog
+    vacuum_near_freeze_age
+    vacuum_heap_with_bloat
+    vacuum_ao_with_bloat
+    analyze_db
 done
-end_maintain</t>
-  </si>
-  <si>
-    <t>Install Greenplum on VMware Workstation</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/pBjBvz3Y71k</t>
+end_maintain
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+ORPHAN=$(ps auwxx | grep postgres | grep con[0-9] | psql -R'|' -A -t -c "SELECT ' grep -v con' || sess_id::text FROM pg_stat_activity;")
+gpssh "$(psql -R' ' -A -t -c "SELECT DISTINCT '-h ' || hostname FROM gp_segment_configuration;")" -e "$ORPHAN"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Blocking on GP4 and send mail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+#Aurther: Kishan Panchal
+# Database connection details
+DB_HOST="&lt;database_host&gt;"
+DB_PORT="&lt;database_port&gt;"
+DB_NAME="&lt;database_name&gt;"
+DB_USER="&lt;database_user&gt;"
+DB_PASSWORD="&lt;database_password&gt;"
+# Email details
+EMAIL_SUBJECT="Blocking Detected on Greenplum Database"
+EMAIL_RECIPIENT="&lt;email_recipient&gt;"
+EMAIL_BODY="Blocking has been detected on the Greenplum database.\n\nBlocked Processes:\n"
+# Get the blocked processes
+blocked_processes=$(psql -h "$DB_HOST" -p "$DB_PORT" -U "$DB_USER" -d "$DB_NAME" -t -A -c "
+SELECT
+    bl.pid AS blocked_pid,
+    ba.usename AS blocked_user,
+    pl.pid AS blocking_pid,
+    pa.usename AS blocking_user,
+    ba.current_query AS blocked_statement,
+    pa.current_query AS current_statement_in_blocking_process,
+    ba.application_name AS blocked_application,
+    pa.application_name AS blocking_application
+FROM
+    pg_catalog.pg_locks bl
+    JOIN pg_catalog.pg_stat_activity ba ON bl.pid = ba.procpid
+    JOIN pg_catalog.pg_locks pl ON bl.locktype = pl.locktype
+        AND bl.database IS NOT DISTINCT FROM pl.database
+        AND bl.relation IS NOT DISTINCT FROM pl.relation
+        AND bl.page IS NOT DISTINCT FROM pl.page
+        AND bl.tuple IS NOT DISTINCT FROM pl.tuple
+        AND bl.virtualtransaction IS NOT DISTINCT FROM pl.virtualtransaction
+        AND bl.transactionid IS NOT DISTINCT FROM pl.transactionid
+        AND bl.classid IS NOT DISTINCT FROM pl.classid
+        AND bl.objid IS NOT DISTINCT FROM pl.objid
+        AND bl.objsubid IS NOT DISTINCT FROM pl.objsubid
+        AND bl.pid != pl.pid
+    JOIN pg_catalog.pg_stat_activity pa ON pl.pid = pa.procpid
+WHERE NOT bl.granted;
+")
+# Check if blocking is found
+if [[ -n $blocked_processes ]]; then
+  EMAIL_BODY+="\n$blocked_processes"
+  # Send email notification
+  echo -e "$EMAIL_BODY" | mailx -s "$EMAIL_SUBJECT" "$EMAIL_RECIPIENT"
+fi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Blocking on GP5/GP6 and send mail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+#Aurther: Kishan Panchal
+# Database connection details
+DB_HOST="&lt;database_host&gt;"
+DB_PORT="&lt;database_port&gt;"
+DB_NAME="&lt;database_name&gt;"
+DB_USER="&lt;database_user&gt;"
+DB_PASSWORD="&lt;database_password&gt;"
+# Email details
+EMAIL_SUBJECT="Blocking Detected on Greenplum Database"
+EMAIL_RECIPIENT="&lt;email_recipient&gt;"
+EMAIL_BODY="Blocking has been detected on the Greenplum database.\n\nBlocked Processes:\n"
+# Get the blocked processes
+blocked_processes=$(psql -h "$DB_HOST" -p "$DB_PORT" -U "$DB_USER" -d "$DB_NAME" -t -A -c "
+SELECT
+    blocked_locks.pid AS blocked_pid,
+    blocked_activity.usename AS blocked_user,
+    blocking_locks.pid AS blocking_pid,
+    blocking_activity.usename AS blocking_user,
+    blocked_activity.query AS blocked_statement,
+    blocking_activity.query AS current_statement_in_blocking_process,
+    blocked_activity.application_name AS blocked_application,
+    blocking_activity.application_name AS blocking_application
+FROM
+    pg_catalog.pg_locks blocked_locks
+    JOIN pg_catalog.pg_stat_activity blocked_activity ON blocked_activity.pid = blocked_locks.pid
+    JOIN pg_catalog.pg_locks blocking_locks ON blocking_locks.locktype = blocked_locks.locktype
+        AND blocking_locks.database IS NOT DISTINCT FROM blocked_locks.database
+        AND blocking_locks.relation IS NOT DISTINCT FROM blocked_locks.relation
+        AND blocking_locks.page IS NOT DISTINCT FROM blocked_locks.page
+        AND blocking_locks.tuple IS NOT DISTINCT FROM blocked_locks.tuple
+        AND blocking_locks.virtualxid IS NOT DISTINCT FROM blocked_locks.virtualxid
+        AND blocking_locks.transactionid IS NOT DISTINCT FROM blocked_locks.transactionid
+        AND blocking_locks.classid IS NOT DISTINCT FROM blocked_locks.classid
+        AND blocking_locks.objid IS NOT DISTINCT FROM blocked_locks.objid
+        AND blocking_locks.objsubid IS NOT DISTINCT FROM blocked_locks.objsubid
+        AND blocking_locks.pid != blocked_locks.pid
+    JOIN pg_catalog.pg_stat_activity blocking_activity ON blocking_activity.pid = blocking_locks.pid
+WHERE NOT blocked_locks.granted;
+")
+# Check if blocking is found
+if [[ -n $blocked_processes ]]; then
+  EMAIL_BODY+="\n$blocked_processes"
+  # Send email notification
+  echo -e "$EMAIL_BODY" | mailx -s "$EMAIL_SUBJECT" "$EMAIL_RECIPIENT"
+fi
+</t>
+  </si>
+  <si>
+    <t>Terminate IDLE session GP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+#Aurther: Kishan Panchal
+# Database connection details
+DB_HOST="&lt;database_host&gt;"
+DB_PORT="&lt;database_port&gt;"
+DB_NAME="&lt;database_name&gt;"
+DB_USER="&lt;database_user&gt;"
+DB_PASSWORD="&lt;database_password&gt;"
+# Email details
+EMAIL_SUBJECT="Idle Session Termination Report"
+EMAIL_RECIPIENT="&lt;email_recipient&gt;"
+EMAIL_BODY="The following idle sessions have been terminated:\n"
+# Calculate the timestamp for 1 hour ago
+one_hour_ago=$(date -d "1 hour ago" +"%Y-%m-%d %H:%M:%S")
+# Terminate idle sessions running for more than 1 hour
+terminated_sessions=$(psql -h "$DB_HOST" -p "$DB_PORT" -U "$DB_USER" -d "$DB_NAME" -t -A -c "
+SELECT pg_terminate_backend(pg_stat_activity.pid)
+FROM pg_stat_activity
+WHERE state = 'idle' AND query_start &lt; '$one_hour_ago'
+RETURNING pg_stat_activity.pid, pg_stat_activity.usename, pg_stat_activity.query_start, pg_stat_activity.application_name;
+")
+# Check if any sessions were terminated
+if [[ -n $terminated_sessions ]]; then
+  EMAIL_BODY+="\n$terminated_sessions"
+  # Send email notification
+  echo -e "$EMAIL_BODY" | mailx -s "$EMAIL_SUBJECT" "$EMAIL_RECIPIENT"
+fi
+</t>
+  </si>
+  <si>
+    <t>Terminate IDLE session GP6</t>
+  </si>
+  <si>
+    <t>#!/bin/bash
+#Aurther: Kishan Panchal
+# Database connection details
+DB_HOST="&lt;database_host&gt;"
+DB_PORT="&lt;database_port&gt;"
+DB_NAME="&lt;database_name&gt;"
+DB_USER="&lt;database_user&gt;"
+DB_PASSWORD="&lt;database_password&gt;"
+# Email details
+EMAIL_SUBJECT="Idle Session Termination Report"
+EMAIL_RECIPIENT="&lt;email_recipient&gt;"
+EMAIL_BODY="The following idle sessions have been terminated:\n"
+# Calculate the timestamp for 1 hour ago
+one_hour_ago=$(date -d "1 hour ago" +"%Y-%m-%d %H:%M:%S")
+# Terminate idle sessions running for more than 1 hour
+terminated_sessions=$(psql -h "$DB_HOST" -p "$DB_PORT" -U "$DB_USER" -d "$DB_NAME" -t -A -c "
+SELECT pg_terminate_backend(pid)
+FROM pg_stat_activity
+WHERE state = 'idle' AND query_start &lt; '$one_hour_ago'
+RETURNING pid, usename, query_start, application_name;
+")
+# Check if any sessions were terminated
+if [[ -n $terminated_sessions ]]; then
+  EMAIL_BODY+="\n$terminated_sessions"
+  # Send email notification
+  echo -e "$EMAIL_BODY" | mailx -s "$EMAIL_SUBJECT" "$EMAIL_RECIPIENT"
+fi</t>
   </si>
 </sst>
 </file>
@@ -1842,10 +2004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,44 +2016,76 @@
     <col min="2" max="2" width="199.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1904,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4949F92-3536-4D23-844F-687E8521DA6A}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,10 +2110,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F358597-A47F-4F59-971C-5EE9F60DF58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D4646-8F5E-4D8B-A84A-5E3B3D0A7FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -697,12 +697,6 @@
   </si>
   <si>
     <t>gpcrondump kill</t>
-  </si>
-  <si>
-    <t>catalog bloat fixer</t>
-  </si>
-  <si>
-    <t>orphan proccess finder</t>
   </si>
   <si>
     <t>Install Greenplum on VMware Workstation</t>
@@ -863,8 +857,80 @@
     <t xml:space="preserve">Find Blocking on GP4 and send mail </t>
   </si>
   <si>
+    <t xml:space="preserve">Find Blocking on GP5/GP6 and send mail </t>
+  </si>
+  <si>
+    <t>Terminate IDLE session GP4</t>
+  </si>
+  <si>
+    <t>Terminate IDLE session GP6</t>
+  </si>
+  <si>
+    <t>Orphan proccess finder</t>
+  </si>
+  <si>
+    <t>Catalog bloat fixer</t>
+  </si>
+  <si>
+    <t>Find long running query and send mail GP4</t>
+  </si>
+  <si>
+    <t>#!/bin/bash
+# Author: Kishan Panchal
+# Define email parameters
+EMAIL_SUBJECT="Long-Running Queries (&gt;1 hour) - Greenplum DB v4"
+EMAIL_TO="your-email@example.com"
+EMAIL_FROM="noreply@example.com"
+# Define Greenplum connection details
+GP_USER="gpadmin"
+GP_HOST="localhost"
+GP_PORT="5432"
+GP_DATABASE="your_database_name"
+# Connect to Greenplum and fetch long-running queries
+LONG_RUNNING_QUERIES=$(psql -h $GP_HOST -p $GP_PORT -U $GP_USER -d $GP_DATABASE -c "SELECT pid, now() - query_start AS duration, query FROM pg_stat_activity WHERE now() - query_start &gt; interval '1 hour';")
+# Check if there are any long-running queries
+if [ -z "$LONG_RUNNING_QUERIES" ]; then
+  echo "No long-running queries found."
+else
+  # Prepare email content
+  EMAIL_BODY="The following queries have been running for more than 1 hour in Greenplum DB v4:\n\n$LONG_RUNNING_QUERIES"
+  # Send email notification
+  echo -e "$EMAIL_BODY" | mail -s "$EMAIL_SUBJECT" -r "$EMAIL_FROM" "$EMAIL_TO"
+  echo "Email notification sent."
+fi</t>
+  </si>
+  <si>
+    <t>Find long running query and send mail GP6</t>
+  </si>
+  <si>
     <t xml:space="preserve">#!/bin/bash
-#Aurther: Kishan Panchal
+# Author: Kishan Panchal
+# Define email parameters
+EMAIL_SUBJECT="Long-Running Queries (&gt;1 hour) - Greenplum DB v6"
+EMAIL_TO="your-email@example.com"
+EMAIL_FROM="noreply@example.com"
+# Define Greenplum connection details
+GP_USER="gpadmin"
+GP_HOST="localhost"
+GP_PORT="5432"
+GP_DATABASE="your_database_name"
+# Connect to Greenplum and fetch long-running queries
+LONG_RUNNING_QUERIES=$(psql "host=$GP_HOST port=$GP_PORT dbname=$GP_DATABASE user=$GP_USER" -c "SELECT pid, now() - query_start AS duration, query FROM pg_stat_activity WHERE now() - query_start &gt; interval '1 hour';")
+# Check if there are any long-running queries
+if [ -z "$LONG_RUNNING_QUERIES" ]; then
+  echo "No long-running queries found."
+else
+  # Prepare email content
+  EMAIL_BODY="The following queries have been running for more than 1 hour in Greenplum DB v6:\n\n$LONG_RUNNING_QUERIES"
+  # Send email notification
+  echo -e "$EMAIL_BODY" | mail -s "$EMAIL_SUBJECT" -r "$EMAIL_FROM" "$EMAIL_TO"
+  echo "Email notification sent."
+fi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+#Author: Kishan Panchal
 # Database connection details
 DB_HOST="&lt;database_host&gt;"
 DB_PORT="&lt;database_port&gt;"
@@ -912,11 +978,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Find Blocking on GP5/GP6 and send mail </t>
-  </si>
-  <si>
     <t xml:space="preserve">#!/bin/bash
-#Aurther: Kishan Panchal
+#Author: Kishan Panchal
 # Database connection details
 DB_HOST="&lt;database_host&gt;"
 DB_PORT="&lt;database_port&gt;"
@@ -964,11 +1027,8 @@
 </t>
   </si>
   <si>
-    <t>Terminate IDLE session GP4</t>
-  </si>
-  <si>
     <t xml:space="preserve">#!/bin/bash
-#Aurther: Kishan Panchal
+#Author: Kishan Panchal
 # Database connection details
 DB_HOST="&lt;database_host&gt;"
 DB_PORT="&lt;database_port&gt;"
@@ -997,11 +1057,8 @@
 </t>
   </si>
   <si>
-    <t>Terminate IDLE session GP6</t>
-  </si>
-  <si>
     <t>#!/bin/bash
-#Aurther: Kishan Panchal
+#Author: Kishan Panchal
 # Database connection details
 DB_HOST="&lt;database_host&gt;"
 DB_PORT="&lt;database_port&gt;"
@@ -1027,6 +1084,36 @@
   # Send email notification
   echo -e "$EMAIL_BODY" | mailx -s "$EMAIL_SUBJECT" "$EMAIL_RECIPIENT"
 fi</t>
+  </si>
+  <si>
+    <t>Filter logs all location (Master / Segments)</t>
+  </si>
+  <si>
+    <t>#!/bin/bash
+# Author: Kishan Panchal
+# Fetch the Greenplum hostnames, content, and log directories using the provided SQL query
+HOST_INFO=$(psql -t -c "SELECT gsc.hostname, gsc.content, gsc.datadir || '/pg_log' AS pg_log_directory FROM gp_segment_configuration AS gsc WHERE gsc.role IN ('p', 'm');")
+# Read start time and end time from user input
+read -p "Enter start time (YYYY-MM-DD HH:MM:SS): " start_time
+read -p "Enter end time (YYYY-MM-DD HH:MM:SS): " end_time
+# Email settings
+email_recipient="recipient@example.com"
+email_subject="Logs Report"
+email_body=""
+# Iterate over each line in the result and SSH into the host to grep the logs
+while read -r line; do
+  hostname=$(echo "$line" | awk '{print $1}')
+  log_directory=$(echo "$line" | awk '{print $3}')
+  # Display the hostname before searching the logs
+  email_body+="Logs for host: $hostname\n\n"
+  # SSH into the host and grep the logs for the specified time range and error conditions
+  logs=$(ssh "$hostname" "grep -E 'ERROR|FATAL|SIGERROR' '$log_directory/gpdb-*.csv' | awk '\$0 &gt;= \"$start_time\" &amp;&amp; \$0 &lt;= \"$end_time\"'")
+  # Append the logs to the email body
+  email_body+="$logs\n\n"
+  email_body+="-------------------------\n\n"
+done &lt;&lt;&lt; "$HOST_INFO"
+# Send email using mailx
+echo -e "$email_body" | mailx -s "$email_subject" "$email_recipient"</t>
   </si>
 </sst>
 </file>
@@ -2004,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,73 +2105,97 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2110,10 +2221,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D4646-8F5E-4D8B-A84A-5E3B3D0A7FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D241FDC-CCC1-4866-BB7B-1DA5375BA29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D241FDC-CCC1-4866-BB7B-1DA5375BA29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC95D6-D2A6-40A1-BFEF-00C903A7E7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="168">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -1089,10 +1089,36 @@
     <t>Filter logs all location (Master / Segments)</t>
   </si>
   <si>
-    <t>#!/bin/bash
+    <t>Table Backup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+# Read the source schema and table name from user input
+read -p "Enter the source schema name: " source_schema
+read -p "Enter the source table name: " source_table
+# Define the backup file name
+backup_file="${source_schema}_${source_table}_schema.sql"
+# Define the target schema and table name for the backup
+read -p "Enter the backup schema name: " backup_schema
+read -p "Enter the backup table name: " backup_table
+# Define the database connection details
+export PGHOST="localhost"
+export PGPORT="5432"
+export PGDATABASE="your_database_name"
+export PGUSER="your_username"
+export PGPASSWORD="your_password"
+# Run pg_dump command to create the table schema backup
+pg_dump -h $PGHOST -p $PGPORT -U $PGUSER -n $source_schema -t $source_table --schema-only --no-owner -f $backup_file $PGDATABASE
+# Run psql command to create the backup table with schema and grants
+psql -h $PGHOST -p $PGPORT -U $PGUSER -d $PGDATABASE -f $backup_file -c "CREATE TABLE $backup_schema.$backup_table (LIKE $source_schema.$source_table INCLUDING DEFAULTS INCLUDING CONSTRAINTS INCLUDING INDEXES INCLUDING STORAGE INCLUDING COMMENTS);"
+# Run INSERT INTO command to copy data from source table to backup table
+psql -h $PGHOST -p $PGPORT -U $PGUSER -d $PGDATABASE -c "INSERT INTO $backup_schema.$backup_table SELECT * FROM $source_schema.$source_table;"
+echo "Table backup created as: $backup_schema.$backup_table"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
 # Author: Kishan Panchal
-# Fetch the Greenplum hostnames, content, and log directories using the provided SQL query
-HOST_INFO=$(psql -t -c "SELECT gsc.hostname, gsc.content, gsc.datadir || '/pg_log' AS pg_log_directory FROM gp_segment_configuration AS gsc WHERE gsc.role IN ('p', 'm');")
 # Read start time and end time from user input
 read -p "Enter start time (YYYY-MM-DD HH:MM:SS): " start_time
 read -p "Enter end time (YYYY-MM-DD HH:MM:SS): " end_time
@@ -1100,20 +1126,23 @@
 email_recipient="recipient@example.com"
 email_subject="Logs Report"
 email_body=""
+# Fetch the Greenplum hostnames, content, and log directories using the provided SQL query
+HOST_INFO=$(psql -t -c "SELECT gsc.hostname, gsc.content, gsc.datadir || '/pg_log' AS pg_log_directory FROM gp_segment_configuration AS gsc WHERE gsc.role IN ('p', 'm');")
 # Iterate over each line in the result and SSH into the host to grep the logs
 while read -r line; do
   hostname=$(echo "$line" | awk '{print $1}')
   log_directory=$(echo "$line" | awk '{print $3}')
   # Display the hostname before searching the logs
   email_body+="Logs for host: $hostname\n\n"
-  # SSH into the host and grep the logs for the specified time range and error conditions
-  logs=$(ssh "$hostname" "grep -E 'ERROR|FATAL|SIGERROR' '$log_directory/gpdb-*.csv' | awk '\$0 &gt;= \"$start_time\" &amp;&amp; \$0 &lt;= \"$end_time\"'")
+  # Use gpssh to check log files on each segment instance
+  logs=$(gpssh -h "$hostname" -e "source /usr/local/greenplum-db/greenplum_path.sh ; gplogfilter -t '$log_directory/gpdb*.log' | awk '\$0 &gt;= \"$start_time\" &amp;&amp; \$0 &lt;= \"$end_time\"'")
   # Append the logs to the email body
   email_body+="$logs\n\n"
   email_body+="-------------------------\n\n"
 done &lt;&lt;&lt; "$HOST_INFO"
 # Send email using mailx
-echo -e "$email_body" | mailx -s "$email_subject" "$email_recipient"</t>
+echo -e "$email_body" | mailx -s "$email_subject" "$email_recipient"
+</t>
   </si>
 </sst>
 </file>
@@ -2091,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2137,7 @@
         <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -2197,6 +2226,14 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DC95D6-D2A6-40A1-BFEF-00C903A7E7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFAEF63-A932-493A-B0A8-2CF44B9AAD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -1143,6 +1143,98 @@
 # Send email using mailx
 echo -e "$email_body" | mailx -s "$email_subject" "$email_recipient"
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+# Author: kpp004
+OPDIR="/home/gpadmin/logs/adhoc_vacuum_analyze.log"
+perform_maintenance() {
+    schema_tbl="$1"
+    dbname="$2"
+    maintenance_commands=("${@:3}")
+    {
+        echo -e "\n$(date)"
+        psql --echo-all -d "$dbname" -c "select now(), pg_size_pretty(pg_total_relation_size('$schema_tbl'));"
+        for cmd in "${maintenance_commands[@]}"; do
+            case "$cmd" in
+                v)
+                    psql --echo-all -d "$dbname" -c "vacuum $schema_tbl;"
+                    ;;
+                r)
+                    psql --echo-all -d "$dbname" -c "reindex table $schema_tbl;"
+                    ;;
+                a)
+                    psql --echo-all -d "$dbname" -c "analyze $schema_tbl;"
+                    ;;
+                *)
+                    echo "Invalid maintenance command: $cmd"
+                    ;;
+            esac
+        done
+        psql --echo-all -d "$dbname" -c "select now(), pg_size_pretty(pg_total_relation_size('$schema_tbl'));"
+        echo -e "\n$(date)"
+    } &gt;&gt; "$OPDIR"
+    return 0
+}
+if [ "$1" == "-d" ] &amp;&amp; [ "$3" == "-t" ] &amp;&amp; [ "$#" -ge 5 ]; then
+    tbl="$4"
+    databasename="$2"
+    maintenance_commands=("${@:5}")
+    perform_maintenance "$tbl" "$databasename" "${maintenance_commands[@]}"
+elif [ "$1" == "-d" ] &amp;&amp; [ "$3" == "-f" ] &amp;&amp; [ "$#" -ge 5 ]; then
+    tbl="$4"
+    databasename="$2"
+    data=$(cat "$tbl")
+    for i in $data; do
+        perform_maintenance "$i" "$databasename" "${@:5}"
+    done
+else
+    cat &lt;&lt;EOF
+Usage: $0 [options]
+-h, --help             Show help text.
+-d &lt;database_name&gt;     Specify the database name.
+-t &lt;schema.table&gt;      Specify the schema.table name.
+-f &lt;file_location&gt;     Specify the file location containing multiple tables to analyze.
+Maintenance commands:
+    v                    Perform VACUUM.
+    r                    Perform REINDEX.
+    a                    Perform ANALYZE.
+    Multiple commands can be combined without using commas. For example: -vra (Perform VACUUM, REINDEX, and ANALYZE)
+EOF
+fi
+</t>
+  </si>
+  <si>
+    <t>Vacuum | Re-Index | Analyze Single or Multiple Tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+# Author: kpp004
+OPDIR="/home/gpadmin/logs"
+OPFILE="$OPDIR/idle_sessions_every_30_min-$(date +"%d-%m-%Y-%H:%M").txt"
+LOGFILE="$OPDIR/terminated_sessions.log"
+MAIL_SUBJECT="Idle Sessions Cleared"
+BCC_EMAIL="kishan@test.com"
+CONTACT_EMAIL="admin@test.com"
+source /home/gpadmin/.bashrc
+psql -tAc "SELECT DISTINCT usename FROM pg_stat_activity WHERE state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();" | while IFS= read -r username; do
+    echo -e "\nDo not reply to this email. If you have any questions, please contact $CONTACT_EMAIL.\n" &gt; "$OPFILE"
+ echo "User Wise Idles &amp; Idle In Transactions" &gt;&gt; "$OPFILE"
+ echo "--------------------------------------------" &gt;&gt; "$OPFILE"
+ echo "User: $username" &gt;&gt; "$OPFILE"
+    echo "Connections Cleared:" &gt;&gt; "$OPFILE"
+    psql -c "SELECT COUNT(pid) FROM pg_stat_activity WHERE usename = '$username' AND state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();" &gt;&gt; "$OPFILE"
+    echo -e "--------------------------------------------\n" &gt;&gt; "$OPFILE"
+    psql -c "SELECT pg_backend_terminate(pid) FROM pg_stat_activity WHERE usename = '$username' AND state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();"
+    # Save terminated session details to log file
+    echo "$(date +"%d-%m-%Y %H:%M:%S") - User: $username, Connections Cleared: $(psql -tAc "SELECT COUNT(pid) FROM pg_stat_activity WHERE usename = '$username' AND state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();")" &gt;&gt; "$LOGFILE"
+    # Send email to user
+    mailx -v -s "$MAIL_SUBJECT" -b "$BCC_EMAIL" "$username@test.com" &lt; "$OPFILE"
+done
+</t>
+  </si>
+  <si>
+    <t>Terminate Long runner IDLE Session GP6 and send mail to User</t>
   </si>
 </sst>
 </file>
@@ -2120,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,91 +2240,107 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>166</v>
       </c>
     </row>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFAEF63-A932-493A-B0A8-2CF44B9AAD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592BE8F1-75BA-4374-8A40-58E0EAECF928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -1145,8 +1145,14 @@
 </t>
   </si>
   <si>
+    <t>Vacuum | Re-Index | Analyze Single or Multiple Tables</t>
+  </si>
+  <si>
+    <t>Terminate Long runner IDLE Session GP6 and send mail to User</t>
+  </si>
+  <si>
     <t xml:space="preserve">#!/bin/bash
-# Author: kpp004
+# Author: Kishan Panchal
 OPDIR="/home/gpadmin/logs/adhoc_vacuum_analyze.log"
 perform_maintenance() {
     schema_tbl="$1"
@@ -1205,11 +1211,8 @@
 </t>
   </si>
   <si>
-    <t>Vacuum | Re-Index | Analyze Single or Multiple Tables</t>
-  </si>
-  <si>
     <t xml:space="preserve">#!/bin/bash
-# Author: kpp004
+# Author: Kishan Panchal
 OPDIR="/home/gpadmin/logs"
 OPFILE="$OPDIR/idle_sessions_every_30_min-$(date +"%d-%m-%Y-%H:%M").txt"
 LOGFILE="$OPDIR/terminated_sessions.log"
@@ -1232,9 +1235,6 @@
     mailx -v -s "$MAIL_SUBJECT" -b "$BCC_EMAIL" "$username@test.com" &lt; "$OPFILE"
 done
 </t>
-  </si>
-  <si>
-    <t>Terminate Long runner IDLE Session GP6 and send mail to User</t>
   </si>
 </sst>
 </file>
@@ -2214,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2314,10 +2314,10 @@
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592BE8F1-75BA-4374-8A40-58E0EAECF928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD87634-D59F-4BF7-A9E9-4268211B40E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="323">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -697,12 +697,6 @@
   </si>
   <si>
     <t>gpcrondump kill</t>
-  </si>
-  <si>
-    <t>Install Greenplum on VMware Workstation</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/pBjBvz3Y71k</t>
   </si>
   <si>
     <t xml:space="preserve">#!/bin/bash
@@ -1236,6 +1230,465 @@
 done
 </t>
   </si>
+  <si>
+    <t>analyzedb</t>
+  </si>
+  <si>
+    <t>clusterdb</t>
+  </si>
+  <si>
+    <t>createdb</t>
+  </si>
+  <si>
+    <t>createuser</t>
+  </si>
+  <si>
+    <t>dropdb</t>
+  </si>
+  <si>
+    <t>dropuser</t>
+  </si>
+  <si>
+    <t>gpactivatestandby</t>
+  </si>
+  <si>
+    <t>gpaddmirrors</t>
+  </si>
+  <si>
+    <t>gpbackup_manager</t>
+  </si>
+  <si>
+    <t>gpbackup</t>
+  </si>
+  <si>
+    <t>gpcheckcat</t>
+  </si>
+  <si>
+    <t>gpcheckperf</t>
+  </si>
+  <si>
+    <t>gpconfig</t>
+  </si>
+  <si>
+    <t>gpcopy</t>
+  </si>
+  <si>
+    <t>gpdeletesystem</t>
+  </si>
+  <si>
+    <t>gpexpand</t>
+  </si>
+  <si>
+    <t>gpfdist</t>
+  </si>
+  <si>
+    <t>gpinitstandby</t>
+  </si>
+  <si>
+    <t>gpinitsystem</t>
+  </si>
+  <si>
+    <t>gpkafka</t>
+  </si>
+  <si>
+    <t>gpload</t>
+  </si>
+  <si>
+    <t>gplogfilter</t>
+  </si>
+  <si>
+    <t>gpmapreduce</t>
+  </si>
+  <si>
+    <t>gpmapreduce.yaml</t>
+  </si>
+  <si>
+    <t>gpmemreport</t>
+  </si>
+  <si>
+    <t>gpmemwatcher</t>
+  </si>
+  <si>
+    <t>gpmovemirrors</t>
+  </si>
+  <si>
+    <t>gpmt</t>
+  </si>
+  <si>
+    <t>gppkg</t>
+  </si>
+  <si>
+    <t>gprecoverseg</t>
+  </si>
+  <si>
+    <t>gpreload</t>
+  </si>
+  <si>
+    <t>gprestore</t>
+  </si>
+  <si>
+    <t>gpscp</t>
+  </si>
+  <si>
+    <t>gpss</t>
+  </si>
+  <si>
+    <t>gpssh</t>
+  </si>
+  <si>
+    <t>gpssh-exkeys</t>
+  </si>
+  <si>
+    <t>gpstart</t>
+  </si>
+  <si>
+    <t>gpstate</t>
+  </si>
+  <si>
+    <t>gpstop</t>
+  </si>
+  <si>
+    <t>pg_config</t>
+  </si>
+  <si>
+    <t>pg_dump</t>
+  </si>
+  <si>
+    <t>pg_dumpall</t>
+  </si>
+  <si>
+    <t>pg_restore</t>
+  </si>
+  <si>
+    <t>pgbouncer</t>
+  </si>
+  <si>
+    <t>pgbouncer.ini</t>
+  </si>
+  <si>
+    <t>pgbouncer-admin</t>
+  </si>
+  <si>
+    <t>plcontainer</t>
+  </si>
+  <si>
+    <t>plcontainer Configuration File</t>
+  </si>
+  <si>
+    <t>psql</t>
+  </si>
+  <si>
+    <t>reindexdb</t>
+  </si>
+  <si>
+    <t>vacuumdb</t>
+  </si>
+  <si>
+    <t>gpdb_analyzedb.html</t>
+  </si>
+  <si>
+    <t>gpdb_clusterdb.html</t>
+  </si>
+  <si>
+    <t>gpdb_createdb.html</t>
+  </si>
+  <si>
+    <t>gpdb_createuser.html</t>
+  </si>
+  <si>
+    <t>gpdb_dropdb.html</t>
+  </si>
+  <si>
+    <t>gpdb_dropuser.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpactivatestandby.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpaddmirrors.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpbackup_manager.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpbackup.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpcheckcat.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpcheckperf.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpconfig.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpcopy.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpdeletesystem.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpexpand.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpfdist.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpinitstandby.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpinitsystem.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpkafka.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpload.html</t>
+  </si>
+  <si>
+    <t>gpdb_gplogfilter.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmapreduce.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmapreduce.yaml.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmemreport.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmemwatcher.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmovemirrors.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmt.html</t>
+  </si>
+  <si>
+    <t>gpdb_gppkg.html</t>
+  </si>
+  <si>
+    <t>gpdb_gprecoverseg.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpreload.html</t>
+  </si>
+  <si>
+    <t>gpdb_gprestore.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpscp.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpss.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpssh.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpssh-exkeys.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpstart.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpstate.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpstop.html</t>
+  </si>
+  <si>
+    <t>gpdb_pg_config.html</t>
+  </si>
+  <si>
+    <t>gpdb_pg_dump.html</t>
+  </si>
+  <si>
+    <t>gpdb_pg_dumpall.html</t>
+  </si>
+  <si>
+    <t>gpdb_pg_restore.html</t>
+  </si>
+  <si>
+    <t>gpdb_pgbouncer.html</t>
+  </si>
+  <si>
+    <t>gpdb_pgbouncer.ini.html</t>
+  </si>
+  <si>
+    <t>gpdb_pgbouncer-admin.html</t>
+  </si>
+  <si>
+    <t>gpdb_plcontainer.html</t>
+  </si>
+  <si>
+    <t>gpdb_plcontainer Configuration File.html</t>
+  </si>
+  <si>
+    <t>gpdb_psql.html</t>
+  </si>
+  <si>
+    <t>gpdb_reindexdb.html</t>
+  </si>
+  <si>
+    <t>gpdb_vacuumdb.html</t>
+  </si>
+  <si>
+    <t>gpcheckcat: Performs catalog consistency checks in a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpcheckperf: Checks the performance of a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpconfig: Retrieves or updates the Greenplum system or per-database configuration settings.</t>
+  </si>
+  <si>
+    <t>gpcopy: Copies data between Greenplum databases.</t>
+  </si>
+  <si>
+    <t>gpdeletesystem: Deletes a Greenplum system.</t>
+  </si>
+  <si>
+    <t>gpexpand: Expands a Greenplum database by adding new segment instances.</t>
+  </si>
+  <si>
+    <t>gpfdist: A parallel file distribution program used for data loading in Greenplum.</t>
+  </si>
+  <si>
+    <t>gpinitstandby: Initializes a standby master in a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpinitsystem: Initializes a new Greenplum database system.</t>
+  </si>
+  <si>
+    <t>gpkafka: Manages integration between Greenplum and Apache Kafka.</t>
+  </si>
+  <si>
+    <t>gpload: Loads data into a Greenplum database in parallel.</t>
+  </si>
+  <si>
+    <t>gplogfilter: Filters and formats Greenplum log files for analysis.</t>
+  </si>
+  <si>
+    <t>gpmapreduce: Executes MapReduce-style analytics in Greenplum using SQL.</t>
+  </si>
+  <si>
+    <t>gpmapreduce.yaml: YAML configuration file used for defining MapReduce jobs in Greenplum.</t>
+  </si>
+  <si>
+    <t>gpmemreport: Generates a report on memory utilization in a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpmemwatcher: Monitors memory utilization in a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpmovemirrors: Moves mirror segments to new hosts in Greenplum.</t>
+  </si>
+  <si>
+    <t>gpmt: Runs a command concurrently on multiple segments in Greenplum.</t>
+  </si>
+  <si>
+    <t>gppkg: Manages Greenplum package installations and upgrades.</t>
+  </si>
+  <si>
+    <t>gprecoverseg: Recovers a failed or unresponsive segment in Greenplum.</t>
+  </si>
+  <si>
+    <t>analyzedb: Updates the optimizer statistics for a specific Greenplum database.</t>
+  </si>
+  <si>
+    <t>clusterdb: Reorganizes database storage to optimize performance by clustering tables.</t>
+  </si>
+  <si>
+    <t>createdb: Creates a new Greenplum database.</t>
+  </si>
+  <si>
+    <t>createuser: Creates a new user role in Greenplum.</t>
+  </si>
+  <si>
+    <t>dropdb: Drops a Greenplum database.</t>
+  </si>
+  <si>
+    <t>dropuser: Drops a user role from Greenplum.</t>
+  </si>
+  <si>
+    <t>gpactivatestandby: Activates a standby master in a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpaddmirrors: Adds mirror segments to an existing Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpbackup_manager: Manages the backup and restore process in Greenplum.</t>
+  </si>
+  <si>
+    <t>gpbackup: Performs backups of Greenplum databases.</t>
+  </si>
+  <si>
+    <t>gpreload: Loads data from an external table into a Greenplum database in parallel.</t>
+  </si>
+  <si>
+    <t>gprestore: Restores a Greenplum database from a backup.</t>
+  </si>
+  <si>
+    <t>gpscp: Copies files between local and remote Greenplum hosts.</t>
+  </si>
+  <si>
+    <t>gpss: Manages the Greenplum Streaming Server (GPSS) for data ingestion.</t>
+  </si>
+  <si>
+    <t>gpssh: Executes commands on remote hosts in a Greenplum cluster.</t>
+  </si>
+  <si>
+    <t>gpssh-exkeys: Exchanges SSH keys among the hosts in a Greenplum cluster.</t>
+  </si>
+  <si>
+    <t>gpstart: Starts a Greenplum database cluster.</t>
+  </si>
+  <si>
+    <t>gpstate: Provides information about the status of a Greenplum database cluster.</t>
+  </si>
+  <si>
+    <t>gpstop: Stops a running Greenplum database cluster.</t>
+  </si>
+  <si>
+    <t>pg_config: Retrieves configuration information about the PostgreSQL installation.</t>
+  </si>
+  <si>
+    <t>pg_dump: Extracts a PostgreSQL database into a script file.</t>
+  </si>
+  <si>
+    <t>pg_dumpall: Extracts all PostgreSQL databases into a script file.</t>
+  </si>
+  <si>
+    <t>pg_restore: Restores a PostgreSQL database from a script file.</t>
+  </si>
+  <si>
+    <t>pgbouncer: A lightweight connection pooler for PostgreSQL.</t>
+  </si>
+  <si>
+    <t>pgbouncer.ini: Configuration file for the Pgbouncer connection pooler.</t>
+  </si>
+  <si>
+    <t>pgbouncer-admin: Manages Pgbouncer connection pooler.</t>
+  </si>
+  <si>
+    <t>plcontainer: Provides an interface to run sandboxed Docker containers in PostgreSQL.</t>
+  </si>
+  <si>
+    <t>plcontainer Configuration File: Configuration file for PL/container in PostgreSQL.</t>
+  </si>
+  <si>
+    <t>psql: Command-line tool for connecting to and working with PostgreSQL databases.</t>
+  </si>
+  <si>
+    <t>reindexdb: Rebuilds indexes in a PostgreSQL database.</t>
+  </si>
+  <si>
+    <t>vacuumdb: Vacuums a PostgreSQL database, reclaiming disk space.</t>
+  </si>
 </sst>
 </file>
 
@@ -1279,13 +1732,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2214,7 +2668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2226,10 +2680,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -2237,15 +2691,15 @@
         <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2261,87 +2715,87 @@
         <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2352,31 +2806,582 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4949F92-3536-4D23-844F-687E8521DA6A}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>145</v>
+        <v>221</v>
+      </c>
+      <c r="C1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s">
+        <v>249</v>
+      </c>
+      <c r="C29" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
+        <v>262</v>
+      </c>
+      <c r="C42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" t="s">
+        <v>263</v>
+      </c>
+      <c r="C43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" t="s">
+        <v>267</v>
+      </c>
+      <c r="C47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{3FEB552B-9035-40E8-8976-5824FF968F0C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD87634-D59F-4BF7-A9E9-4268211B40E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAA3AEE-1AE1-438E-B2E5-ECA025C11493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1147,6 +1147,491 @@
   <si>
     <t xml:space="preserve">#!/bin/bash
 # Author: Kishan Panchal
+OPDIR="/home/gpadmin/logs"
+OPFILE="$OPDIR/idle_sessions_every_30_min-$(date +"%d-%m-%Y-%H:%M").txt"
+LOGFILE="$OPDIR/terminated_sessions.log"
+MAIL_SUBJECT="Idle Sessions Cleared"
+BCC_EMAIL="kishan@test.com"
+CONTACT_EMAIL="admin@test.com"
+source /home/gpadmin/.bashrc
+psql -tAc "SELECT DISTINCT usename FROM pg_stat_activity WHERE state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();" | while IFS= read -r username; do
+    echo -e "\nDo not reply to this email. If you have any questions, please contact $CONTACT_EMAIL.\n" &gt; "$OPFILE"
+ echo "User Wise Idles &amp; Idle In Transactions" &gt;&gt; "$OPFILE"
+ echo "--------------------------------------------" &gt;&gt; "$OPFILE"
+ echo "User: $username" &gt;&gt; "$OPFILE"
+    echo "Connections Cleared:" &gt;&gt; "$OPFILE"
+    psql -c "SELECT COUNT(pid) FROM pg_stat_activity WHERE usename = '$username' AND state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();" &gt;&gt; "$OPFILE"
+    echo -e "--------------------------------------------\n" &gt;&gt; "$OPFILE"
+    psql -c "SELECT pg_backend_terminate(pid) FROM pg_stat_activity WHERE usename = '$username' AND state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();"
+    # Save terminated session details to log file
+    echo "$(date +"%d-%m-%Y %H:%M:%S") - User: $username, Connections Cleared: $(psql -tAc "SELECT COUNT(pid) FROM pg_stat_activity WHERE usename = '$username' AND state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();")" &gt;&gt; "$LOGFILE"
+    # Send email to user
+    mailx -v -s "$MAIL_SUBJECT" -b "$BCC_EMAIL" "$username@test.com" &lt; "$OPFILE"
+done
+</t>
+  </si>
+  <si>
+    <t>analyzedb</t>
+  </si>
+  <si>
+    <t>clusterdb</t>
+  </si>
+  <si>
+    <t>createdb</t>
+  </si>
+  <si>
+    <t>createuser</t>
+  </si>
+  <si>
+    <t>dropdb</t>
+  </si>
+  <si>
+    <t>dropuser</t>
+  </si>
+  <si>
+    <t>gpactivatestandby</t>
+  </si>
+  <si>
+    <t>gpaddmirrors</t>
+  </si>
+  <si>
+    <t>gpbackup_manager</t>
+  </si>
+  <si>
+    <t>gpbackup</t>
+  </si>
+  <si>
+    <t>gpcheckcat</t>
+  </si>
+  <si>
+    <t>gpcheckperf</t>
+  </si>
+  <si>
+    <t>gpconfig</t>
+  </si>
+  <si>
+    <t>gpcopy</t>
+  </si>
+  <si>
+    <t>gpdeletesystem</t>
+  </si>
+  <si>
+    <t>gpexpand</t>
+  </si>
+  <si>
+    <t>gpfdist</t>
+  </si>
+  <si>
+    <t>gpinitstandby</t>
+  </si>
+  <si>
+    <t>gpinitsystem</t>
+  </si>
+  <si>
+    <t>gpkafka</t>
+  </si>
+  <si>
+    <t>gpload</t>
+  </si>
+  <si>
+    <t>gplogfilter</t>
+  </si>
+  <si>
+    <t>gpmapreduce</t>
+  </si>
+  <si>
+    <t>gpmapreduce.yaml</t>
+  </si>
+  <si>
+    <t>gpmemreport</t>
+  </si>
+  <si>
+    <t>gpmemwatcher</t>
+  </si>
+  <si>
+    <t>gpmovemirrors</t>
+  </si>
+  <si>
+    <t>gpmt</t>
+  </si>
+  <si>
+    <t>gppkg</t>
+  </si>
+  <si>
+    <t>gprecoverseg</t>
+  </si>
+  <si>
+    <t>gpreload</t>
+  </si>
+  <si>
+    <t>gprestore</t>
+  </si>
+  <si>
+    <t>gpscp</t>
+  </si>
+  <si>
+    <t>gpss</t>
+  </si>
+  <si>
+    <t>gpssh</t>
+  </si>
+  <si>
+    <t>gpssh-exkeys</t>
+  </si>
+  <si>
+    <t>gpstart</t>
+  </si>
+  <si>
+    <t>gpstate</t>
+  </si>
+  <si>
+    <t>gpstop</t>
+  </si>
+  <si>
+    <t>pg_config</t>
+  </si>
+  <si>
+    <t>pg_dump</t>
+  </si>
+  <si>
+    <t>pg_dumpall</t>
+  </si>
+  <si>
+    <t>pg_restore</t>
+  </si>
+  <si>
+    <t>pgbouncer</t>
+  </si>
+  <si>
+    <t>pgbouncer.ini</t>
+  </si>
+  <si>
+    <t>pgbouncer-admin</t>
+  </si>
+  <si>
+    <t>plcontainer</t>
+  </si>
+  <si>
+    <t>plcontainer Configuration File</t>
+  </si>
+  <si>
+    <t>psql</t>
+  </si>
+  <si>
+    <t>reindexdb</t>
+  </si>
+  <si>
+    <t>vacuumdb</t>
+  </si>
+  <si>
+    <t>gpdb_analyzedb.html</t>
+  </si>
+  <si>
+    <t>gpdb_clusterdb.html</t>
+  </si>
+  <si>
+    <t>gpdb_createdb.html</t>
+  </si>
+  <si>
+    <t>gpdb_createuser.html</t>
+  </si>
+  <si>
+    <t>gpdb_dropdb.html</t>
+  </si>
+  <si>
+    <t>gpdb_dropuser.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpactivatestandby.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpaddmirrors.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpbackup_manager.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpbackup.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpcheckcat.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpcheckperf.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpconfig.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpcopy.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpdeletesystem.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpexpand.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpfdist.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpinitstandby.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpinitsystem.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpkafka.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpload.html</t>
+  </si>
+  <si>
+    <t>gpdb_gplogfilter.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmapreduce.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmapreduce.yaml.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmemreport.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmemwatcher.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmovemirrors.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpmt.html</t>
+  </si>
+  <si>
+    <t>gpdb_gppkg.html</t>
+  </si>
+  <si>
+    <t>gpdb_gprecoverseg.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpreload.html</t>
+  </si>
+  <si>
+    <t>gpdb_gprestore.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpscp.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpss.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpssh.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpssh-exkeys.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpstart.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpstate.html</t>
+  </si>
+  <si>
+    <t>gpdb_gpstop.html</t>
+  </si>
+  <si>
+    <t>gpdb_pg_config.html</t>
+  </si>
+  <si>
+    <t>gpdb_pg_dump.html</t>
+  </si>
+  <si>
+    <t>gpdb_pg_dumpall.html</t>
+  </si>
+  <si>
+    <t>gpdb_pg_restore.html</t>
+  </si>
+  <si>
+    <t>gpdb_pgbouncer.html</t>
+  </si>
+  <si>
+    <t>gpdb_pgbouncer.ini.html</t>
+  </si>
+  <si>
+    <t>gpdb_pgbouncer-admin.html</t>
+  </si>
+  <si>
+    <t>gpdb_plcontainer.html</t>
+  </si>
+  <si>
+    <t>gpdb_plcontainer Configuration File.html</t>
+  </si>
+  <si>
+    <t>gpdb_psql.html</t>
+  </si>
+  <si>
+    <t>gpdb_reindexdb.html</t>
+  </si>
+  <si>
+    <t>gpdb_vacuumdb.html</t>
+  </si>
+  <si>
+    <t>gpcheckcat: Performs catalog consistency checks in a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpcheckperf: Checks the performance of a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpconfig: Retrieves or updates the Greenplum system or per-database configuration settings.</t>
+  </si>
+  <si>
+    <t>gpcopy: Copies data between Greenplum databases.</t>
+  </si>
+  <si>
+    <t>gpdeletesystem: Deletes a Greenplum system.</t>
+  </si>
+  <si>
+    <t>gpexpand: Expands a Greenplum database by adding new segment instances.</t>
+  </si>
+  <si>
+    <t>gpfdist: A parallel file distribution program used for data loading in Greenplum.</t>
+  </si>
+  <si>
+    <t>gpinitstandby: Initializes a standby master in a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpinitsystem: Initializes a new Greenplum database system.</t>
+  </si>
+  <si>
+    <t>gpkafka: Manages integration between Greenplum and Apache Kafka.</t>
+  </si>
+  <si>
+    <t>gpload: Loads data into a Greenplum database in parallel.</t>
+  </si>
+  <si>
+    <t>gplogfilter: Filters and formats Greenplum log files for analysis.</t>
+  </si>
+  <si>
+    <t>gpmapreduce: Executes MapReduce-style analytics in Greenplum using SQL.</t>
+  </si>
+  <si>
+    <t>gpmapreduce.yaml: YAML configuration file used for defining MapReduce jobs in Greenplum.</t>
+  </si>
+  <si>
+    <t>gpmemreport: Generates a report on memory utilization in a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpmemwatcher: Monitors memory utilization in a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpmovemirrors: Moves mirror segments to new hosts in Greenplum.</t>
+  </si>
+  <si>
+    <t>gpmt: Runs a command concurrently on multiple segments in Greenplum.</t>
+  </si>
+  <si>
+    <t>gppkg: Manages Greenplum package installations and upgrades.</t>
+  </si>
+  <si>
+    <t>gprecoverseg: Recovers a failed or unresponsive segment in Greenplum.</t>
+  </si>
+  <si>
+    <t>analyzedb: Updates the optimizer statistics for a specific Greenplum database.</t>
+  </si>
+  <si>
+    <t>clusterdb: Reorganizes database storage to optimize performance by clustering tables.</t>
+  </si>
+  <si>
+    <t>createdb: Creates a new Greenplum database.</t>
+  </si>
+  <si>
+    <t>createuser: Creates a new user role in Greenplum.</t>
+  </si>
+  <si>
+    <t>dropdb: Drops a Greenplum database.</t>
+  </si>
+  <si>
+    <t>dropuser: Drops a user role from Greenplum.</t>
+  </si>
+  <si>
+    <t>gpactivatestandby: Activates a standby master in a Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpaddmirrors: Adds mirror segments to an existing Greenplum database.</t>
+  </si>
+  <si>
+    <t>gpbackup_manager: Manages the backup and restore process in Greenplum.</t>
+  </si>
+  <si>
+    <t>gpbackup: Performs backups of Greenplum databases.</t>
+  </si>
+  <si>
+    <t>gpreload: Loads data from an external table into a Greenplum database in parallel.</t>
+  </si>
+  <si>
+    <t>gprestore: Restores a Greenplum database from a backup.</t>
+  </si>
+  <si>
+    <t>gpscp: Copies files between local and remote Greenplum hosts.</t>
+  </si>
+  <si>
+    <t>gpss: Manages the Greenplum Streaming Server (GPSS) for data ingestion.</t>
+  </si>
+  <si>
+    <t>gpssh: Executes commands on remote hosts in a Greenplum cluster.</t>
+  </si>
+  <si>
+    <t>gpssh-exkeys: Exchanges SSH keys among the hosts in a Greenplum cluster.</t>
+  </si>
+  <si>
+    <t>gpstart: Starts a Greenplum database cluster.</t>
+  </si>
+  <si>
+    <t>gpstate: Provides information about the status of a Greenplum database cluster.</t>
+  </si>
+  <si>
+    <t>gpstop: Stops a running Greenplum database cluster.</t>
+  </si>
+  <si>
+    <t>pg_config: Retrieves configuration information about the PostgreSQL installation.</t>
+  </si>
+  <si>
+    <t>pg_dump: Extracts a PostgreSQL database into a script file.</t>
+  </si>
+  <si>
+    <t>pg_dumpall: Extracts all PostgreSQL databases into a script file.</t>
+  </si>
+  <si>
+    <t>pg_restore: Restores a PostgreSQL database from a script file.</t>
+  </si>
+  <si>
+    <t>pgbouncer: A lightweight connection pooler for PostgreSQL.</t>
+  </si>
+  <si>
+    <t>pgbouncer.ini: Configuration file for the Pgbouncer connection pooler.</t>
+  </si>
+  <si>
+    <t>pgbouncer-admin: Manages Pgbouncer connection pooler.</t>
+  </si>
+  <si>
+    <t>plcontainer: Provides an interface to run sandboxed Docker containers in PostgreSQL.</t>
+  </si>
+  <si>
+    <t>plcontainer Configuration File: Configuration file for PL/container in PostgreSQL.</t>
+  </si>
+  <si>
+    <t>psql: Command-line tool for connecting to and working with PostgreSQL databases.</t>
+  </si>
+  <si>
+    <t>reindexdb: Rebuilds indexes in a PostgreSQL database.</t>
+  </si>
+  <si>
+    <t>vacuumdb: Vacuums a PostgreSQL database, reclaiming disk space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#!/bin/bash
+# Author: Kishan Panchal
 OPDIR="/home/gpadmin/logs/adhoc_vacuum_analyze.log"
 perform_maintenance() {
     schema_tbl="$1"
@@ -1176,518 +1661,79 @@
     } &gt;&gt; "$OPDIR"
     return 0
 }
-if [ "$1" == "-d" ] &amp;&amp; [ "$3" == "-t" ] &amp;&amp; [ "$#" -ge 5 ]; then
-    tbl="$4"
-    databasename="$2"
-    maintenance_commands=("${@:5}")
-    perform_maintenance "$tbl" "$databasename" "${maintenance_commands[@]}"
-elif [ "$1" == "-d" ] &amp;&amp; [ "$3" == "-f" ] &amp;&amp; [ "$#" -ge 5 ]; then
-    tbl="$4"
-    databasename="$2"
-    data=$(cat "$tbl")
-    for i in $data; do
-        perform_maintenance "$i" "$databasename" "${@:5}"
+execute_parallel() {
+    local tbl_list="$1"
+    local dbname="$2"
+    local maintenance_commands=("${@:3}")
+    for tbl in $tbl_list; do
+        perform_maintenance "$tbl" "$dbname" "${maintenance_commands[@]}" &amp;
+        pid=$!
+        if (( $(jobs -p | wc -l) &gt;= MAX_PARALLEL )); then
+            wait -n
+        fi
     done
-else
+    wait  # Wait for any remaining background processes to finish
+}
+# Parse command-line arguments
+while [[ $# -gt 0 ]]; do
+    case $1 in
+        -d)
+            databasename="$2"
+            shift 2
+            ;;
+        -f)
+            tbl_file="$2"
+            shift 2
+            ;;
+        -t)
+            tbl="$2"
+            shift 2
+            ;;
+        -jobs)
+            MAX_PARALLEL="$2"
+            shift 2
+            ;;
+        *)
+            maintenance_options="$1"
+            shift
+            ;;
+    esac
+done
+# Extract individual maintenance commands from the combined options
+maintenance_commands=()
+for ((i = 0; i &lt; ${#maintenance_options}; i++)); do
+    cmd="${maintenance_options:i:1}"
+    case "$cmd" in
+        v | r | a)
+            maintenance_commands+=("$cmd")
+            ;;
+        *)
+            echo "Invalid maintenance command: $cmd"
+            ;;
+    esac
+done
+if [[ -z $databasename || (-z $tbl_file &amp;&amp; -z $tbl) || -z $MAX_PARALLEL ]]; then
     cat &lt;&lt;EOF
 Usage: $0 [options]
--h, --help             Show help text.
 -d &lt;database_name&gt;     Specify the database name.
 -t &lt;schema.table&gt;      Specify the schema.table name.
 -f &lt;file_location&gt;     Specify the file location containing multiple tables to analyze.
+-jobs &lt;num_jobs&gt;       Specify the maximum number of parallel maintenance processes.
 Maintenance commands:
     v                    Perform VACUUM.
     r                    Perform REINDEX.
     a                    Perform ANALYZE.
-    Multiple commands can be combined without using commas. For example: -vra (Perform VACUUM, REINDEX, and ANALYZE)
+    Multiple commands can be combined without using spaces. For example: vra (Perform VACUUM, REINDEX, and ANALYZE)
 EOF
+    exit 1
 fi
+if [[ -n $tbl_file ]]; then
+    tbl_list=$(cat "$tbl_file")
+else
+    tbl_list="$tbl"
+fi
+execute_parallel "$tbl_list" "$databasename" "${maintenance_commands[@]}"
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#!/bin/bash
-# Author: Kishan Panchal
-OPDIR="/home/gpadmin/logs"
-OPFILE="$OPDIR/idle_sessions_every_30_min-$(date +"%d-%m-%Y-%H:%M").txt"
-LOGFILE="$OPDIR/terminated_sessions.log"
-MAIL_SUBJECT="Idle Sessions Cleared"
-BCC_EMAIL="kishan@test.com"
-CONTACT_EMAIL="admin@test.com"
-source /home/gpadmin/.bashrc
-psql -tAc "SELECT DISTINCT usename FROM pg_stat_activity WHERE state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();" | while IFS= read -r username; do
-    echo -e "\nDo not reply to this email. If you have any questions, please contact $CONTACT_EMAIL.\n" &gt; "$OPFILE"
- echo "User Wise Idles &amp; Idle In Transactions" &gt;&gt; "$OPFILE"
- echo "--------------------------------------------" &gt;&gt; "$OPFILE"
- echo "User: $username" &gt;&gt; "$OPFILE"
-    echo "Connections Cleared:" &gt;&gt; "$OPFILE"
-    psql -c "SELECT COUNT(pid) FROM pg_stat_activity WHERE usename = '$username' AND state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();" &gt;&gt; "$OPFILE"
-    echo -e "--------------------------------------------\n" &gt;&gt; "$OPFILE"
-    psql -c "SELECT pg_backend_terminate(pid) FROM pg_stat_activity WHERE usename = '$username' AND state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();"
-    # Save terminated session details to log file
-    echo "$(date +"%d-%m-%Y %H:%M:%S") - User: $username, Connections Cleared: $(psql -tAc "SELECT COUNT(pid) FROM pg_stat_activity WHERE usename = '$username' AND state = 'idle' AND now() - query_start &gt; interval '6 hours' AND pid &lt;&gt; pg_backend_pid();")" &gt;&gt; "$LOGFILE"
-    # Send email to user
-    mailx -v -s "$MAIL_SUBJECT" -b "$BCC_EMAIL" "$username@test.com" &lt; "$OPFILE"
-done
-</t>
-  </si>
-  <si>
-    <t>analyzedb</t>
-  </si>
-  <si>
-    <t>clusterdb</t>
-  </si>
-  <si>
-    <t>createdb</t>
-  </si>
-  <si>
-    <t>createuser</t>
-  </si>
-  <si>
-    <t>dropdb</t>
-  </si>
-  <si>
-    <t>dropuser</t>
-  </si>
-  <si>
-    <t>gpactivatestandby</t>
-  </si>
-  <si>
-    <t>gpaddmirrors</t>
-  </si>
-  <si>
-    <t>gpbackup_manager</t>
-  </si>
-  <si>
-    <t>gpbackup</t>
-  </si>
-  <si>
-    <t>gpcheckcat</t>
-  </si>
-  <si>
-    <t>gpcheckperf</t>
-  </si>
-  <si>
-    <t>gpconfig</t>
-  </si>
-  <si>
-    <t>gpcopy</t>
-  </si>
-  <si>
-    <t>gpdeletesystem</t>
-  </si>
-  <si>
-    <t>gpexpand</t>
-  </si>
-  <si>
-    <t>gpfdist</t>
-  </si>
-  <si>
-    <t>gpinitstandby</t>
-  </si>
-  <si>
-    <t>gpinitsystem</t>
-  </si>
-  <si>
-    <t>gpkafka</t>
-  </si>
-  <si>
-    <t>gpload</t>
-  </si>
-  <si>
-    <t>gplogfilter</t>
-  </si>
-  <si>
-    <t>gpmapreduce</t>
-  </si>
-  <si>
-    <t>gpmapreduce.yaml</t>
-  </si>
-  <si>
-    <t>gpmemreport</t>
-  </si>
-  <si>
-    <t>gpmemwatcher</t>
-  </si>
-  <si>
-    <t>gpmovemirrors</t>
-  </si>
-  <si>
-    <t>gpmt</t>
-  </si>
-  <si>
-    <t>gppkg</t>
-  </si>
-  <si>
-    <t>gprecoverseg</t>
-  </si>
-  <si>
-    <t>gpreload</t>
-  </si>
-  <si>
-    <t>gprestore</t>
-  </si>
-  <si>
-    <t>gpscp</t>
-  </si>
-  <si>
-    <t>gpss</t>
-  </si>
-  <si>
-    <t>gpssh</t>
-  </si>
-  <si>
-    <t>gpssh-exkeys</t>
-  </si>
-  <si>
-    <t>gpstart</t>
-  </si>
-  <si>
-    <t>gpstate</t>
-  </si>
-  <si>
-    <t>gpstop</t>
-  </si>
-  <si>
-    <t>pg_config</t>
-  </si>
-  <si>
-    <t>pg_dump</t>
-  </si>
-  <si>
-    <t>pg_dumpall</t>
-  </si>
-  <si>
-    <t>pg_restore</t>
-  </si>
-  <si>
-    <t>pgbouncer</t>
-  </si>
-  <si>
-    <t>pgbouncer.ini</t>
-  </si>
-  <si>
-    <t>pgbouncer-admin</t>
-  </si>
-  <si>
-    <t>plcontainer</t>
-  </si>
-  <si>
-    <t>plcontainer Configuration File</t>
-  </si>
-  <si>
-    <t>psql</t>
-  </si>
-  <si>
-    <t>reindexdb</t>
-  </si>
-  <si>
-    <t>vacuumdb</t>
-  </si>
-  <si>
-    <t>gpdb_analyzedb.html</t>
-  </si>
-  <si>
-    <t>gpdb_clusterdb.html</t>
-  </si>
-  <si>
-    <t>gpdb_createdb.html</t>
-  </si>
-  <si>
-    <t>gpdb_createuser.html</t>
-  </si>
-  <si>
-    <t>gpdb_dropdb.html</t>
-  </si>
-  <si>
-    <t>gpdb_dropuser.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpactivatestandby.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpaddmirrors.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpbackup_manager.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpbackup.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpcheckcat.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpcheckperf.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpconfig.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpcopy.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpdeletesystem.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpexpand.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpfdist.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpinitstandby.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpinitsystem.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpkafka.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpload.html</t>
-  </si>
-  <si>
-    <t>gpdb_gplogfilter.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpmapreduce.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpmapreduce.yaml.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpmemreport.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpmemwatcher.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpmovemirrors.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpmt.html</t>
-  </si>
-  <si>
-    <t>gpdb_gppkg.html</t>
-  </si>
-  <si>
-    <t>gpdb_gprecoverseg.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpreload.html</t>
-  </si>
-  <si>
-    <t>gpdb_gprestore.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpscp.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpss.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpssh.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpssh-exkeys.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpstart.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpstate.html</t>
-  </si>
-  <si>
-    <t>gpdb_gpstop.html</t>
-  </si>
-  <si>
-    <t>gpdb_pg_config.html</t>
-  </si>
-  <si>
-    <t>gpdb_pg_dump.html</t>
-  </si>
-  <si>
-    <t>gpdb_pg_dumpall.html</t>
-  </si>
-  <si>
-    <t>gpdb_pg_restore.html</t>
-  </si>
-  <si>
-    <t>gpdb_pgbouncer.html</t>
-  </si>
-  <si>
-    <t>gpdb_pgbouncer.ini.html</t>
-  </si>
-  <si>
-    <t>gpdb_pgbouncer-admin.html</t>
-  </si>
-  <si>
-    <t>gpdb_plcontainer.html</t>
-  </si>
-  <si>
-    <t>gpdb_plcontainer Configuration File.html</t>
-  </si>
-  <si>
-    <t>gpdb_psql.html</t>
-  </si>
-  <si>
-    <t>gpdb_reindexdb.html</t>
-  </si>
-  <si>
-    <t>gpdb_vacuumdb.html</t>
-  </si>
-  <si>
-    <t>gpcheckcat: Performs catalog consistency checks in a Greenplum database.</t>
-  </si>
-  <si>
-    <t>gpcheckperf: Checks the performance of a Greenplum database.</t>
-  </si>
-  <si>
-    <t>gpconfig: Retrieves or updates the Greenplum system or per-database configuration settings.</t>
-  </si>
-  <si>
-    <t>gpcopy: Copies data between Greenplum databases.</t>
-  </si>
-  <si>
-    <t>gpdeletesystem: Deletes a Greenplum system.</t>
-  </si>
-  <si>
-    <t>gpexpand: Expands a Greenplum database by adding new segment instances.</t>
-  </si>
-  <si>
-    <t>gpfdist: A parallel file distribution program used for data loading in Greenplum.</t>
-  </si>
-  <si>
-    <t>gpinitstandby: Initializes a standby master in a Greenplum database.</t>
-  </si>
-  <si>
-    <t>gpinitsystem: Initializes a new Greenplum database system.</t>
-  </si>
-  <si>
-    <t>gpkafka: Manages integration between Greenplum and Apache Kafka.</t>
-  </si>
-  <si>
-    <t>gpload: Loads data into a Greenplum database in parallel.</t>
-  </si>
-  <si>
-    <t>gplogfilter: Filters and formats Greenplum log files for analysis.</t>
-  </si>
-  <si>
-    <t>gpmapreduce: Executes MapReduce-style analytics in Greenplum using SQL.</t>
-  </si>
-  <si>
-    <t>gpmapreduce.yaml: YAML configuration file used for defining MapReduce jobs in Greenplum.</t>
-  </si>
-  <si>
-    <t>gpmemreport: Generates a report on memory utilization in a Greenplum database.</t>
-  </si>
-  <si>
-    <t>gpmemwatcher: Monitors memory utilization in a Greenplum database.</t>
-  </si>
-  <si>
-    <t>gpmovemirrors: Moves mirror segments to new hosts in Greenplum.</t>
-  </si>
-  <si>
-    <t>gpmt: Runs a command concurrently on multiple segments in Greenplum.</t>
-  </si>
-  <si>
-    <t>gppkg: Manages Greenplum package installations and upgrades.</t>
-  </si>
-  <si>
-    <t>gprecoverseg: Recovers a failed or unresponsive segment in Greenplum.</t>
-  </si>
-  <si>
-    <t>analyzedb: Updates the optimizer statistics for a specific Greenplum database.</t>
-  </si>
-  <si>
-    <t>clusterdb: Reorganizes database storage to optimize performance by clustering tables.</t>
-  </si>
-  <si>
-    <t>createdb: Creates a new Greenplum database.</t>
-  </si>
-  <si>
-    <t>createuser: Creates a new user role in Greenplum.</t>
-  </si>
-  <si>
-    <t>dropdb: Drops a Greenplum database.</t>
-  </si>
-  <si>
-    <t>dropuser: Drops a user role from Greenplum.</t>
-  </si>
-  <si>
-    <t>gpactivatestandby: Activates a standby master in a Greenplum database.</t>
-  </si>
-  <si>
-    <t>gpaddmirrors: Adds mirror segments to an existing Greenplum database.</t>
-  </si>
-  <si>
-    <t>gpbackup_manager: Manages the backup and restore process in Greenplum.</t>
-  </si>
-  <si>
-    <t>gpbackup: Performs backups of Greenplum databases.</t>
-  </si>
-  <si>
-    <t>gpreload: Loads data from an external table into a Greenplum database in parallel.</t>
-  </si>
-  <si>
-    <t>gprestore: Restores a Greenplum database from a backup.</t>
-  </si>
-  <si>
-    <t>gpscp: Copies files between local and remote Greenplum hosts.</t>
-  </si>
-  <si>
-    <t>gpss: Manages the Greenplum Streaming Server (GPSS) for data ingestion.</t>
-  </si>
-  <si>
-    <t>gpssh: Executes commands on remote hosts in a Greenplum cluster.</t>
-  </si>
-  <si>
-    <t>gpssh-exkeys: Exchanges SSH keys among the hosts in a Greenplum cluster.</t>
-  </si>
-  <si>
-    <t>gpstart: Starts a Greenplum database cluster.</t>
-  </si>
-  <si>
-    <t>gpstate: Provides information about the status of a Greenplum database cluster.</t>
-  </si>
-  <si>
-    <t>gpstop: Stops a running Greenplum database cluster.</t>
-  </si>
-  <si>
-    <t>pg_config: Retrieves configuration information about the PostgreSQL installation.</t>
-  </si>
-  <si>
-    <t>pg_dump: Extracts a PostgreSQL database into a script file.</t>
-  </si>
-  <si>
-    <t>pg_dumpall: Extracts all PostgreSQL databases into a script file.</t>
-  </si>
-  <si>
-    <t>pg_restore: Restores a PostgreSQL database from a script file.</t>
-  </si>
-  <si>
-    <t>pgbouncer: A lightweight connection pooler for PostgreSQL.</t>
-  </si>
-  <si>
-    <t>pgbouncer.ini: Configuration file for the Pgbouncer connection pooler.</t>
-  </si>
-  <si>
-    <t>pgbouncer-admin: Manages Pgbouncer connection pooler.</t>
-  </si>
-  <si>
-    <t>plcontainer: Provides an interface to run sandboxed Docker containers in PostgreSQL.</t>
-  </si>
-  <si>
-    <t>plcontainer Configuration File: Configuration file for PL/container in PostgreSQL.</t>
-  </si>
-  <si>
-    <t>psql: Command-line tool for connecting to and working with PostgreSQL databases.</t>
-  </si>
-  <si>
-    <t>reindexdb: Rebuilds indexes in a PostgreSQL database.</t>
-  </si>
-  <si>
-    <t>vacuumdb: Vacuums a PostgreSQL database, reclaiming disk space.</t>
   </si>
 </sst>
 </file>
@@ -1732,14 +1778,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2668,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2699,7 +2744,7 @@
         <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2771,7 +2816,7 @@
         <v>167</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
@@ -2808,7 +2853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4949F92-3536-4D23-844F-687E8521DA6A}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2821,563 +2866,563 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>231</v>
+        <v>179</v>
+      </c>
+      <c r="B11" t="s">
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C44" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C45" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C48" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAA3AEE-1AE1-438E-B2E5-ECA025C11493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E046C55B-B008-4AD3-A9D0-512AF0428D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -1630,35 +1630,44 @@
     <t>vacuumdb: Vacuums a PostgreSQL database, reclaiming disk space.</t>
   </si>
   <si>
-    <t xml:space="preserve">#!/bin/bash
+    <t>#!/bin/bash
 # Author: Kishan Panchal
-OPDIR="/home/gpadmin/logs/adhoc_vacuum_analyze.log"
+OPDIR="/home/gpadmin/logs"
+LOGFILE="${OPDIR}/adhoc_vacuum_analyze_$(date +"%Y%m%d_%H%M%S").log"
+MAX_PARALLEL=4  # Default maximum number of parallel processes
 perform_maintenance() {
     schema_tbl="$1"
     dbname="$2"
     maintenance_commands=("${@:3}")
+    local run_vacuum=true
+    for cmd in "${maintenance_commands[@]}"; do
+        case "$cmd" in
+            v)
+                if [[ "${maintenance_commands[*]}" =~ "vf" ]]; then
+                    run_vacuum=false
+                elif [[ "$run_vacuum" == "true" ]]; then
+                    psql --echo-all -d "$dbname" -c "vacuum $schema_tbl;"
+                fi
+                ;;
+            vf)
+                psql --echo-all -d "$dbname" -c "vacuum full $schema_tbl;"
+                ;;
+            r)
+                psql --echo-all -d "$dbname" -c "reindex table $schema_tbl;"
+                ;;
+            a)
+                psql --echo-all -d "$dbname" -c "analyze $schema_tbl;"
+                ;;
+            *)
+                echo "Invalid maintenance command: $cmd"
+                ;;
+        esac
+    done
     {
         echo -e "\n$(date)"
         psql --echo-all -d "$dbname" -c "select now(), pg_size_pretty(pg_total_relation_size('$schema_tbl'));"
-        for cmd in "${maintenance_commands[@]}"; do
-            case "$cmd" in
-                v)
-                    psql --echo-all -d "$dbname" -c "vacuum $schema_tbl;"
-                    ;;
-                r)
-                    psql --echo-all -d "$dbname" -c "reindex table $schema_tbl;"
-                    ;;
-                a)
-                    psql --echo-all -d "$dbname" -c "analyze $schema_tbl;"
-                    ;;
-                *)
-                    echo "Invalid maintenance command: $cmd"
-                    ;;
-            esac
-        done
-        psql --echo-all -d "$dbname" -c "select now(), pg_size_pretty(pg_total_relation_size('$schema_tbl'));"
         echo -e "\n$(date)"
-    } &gt;&gt; "$OPDIR"
+    } &gt;&gt; "$LOGFILE"
     return 0
 }
 execute_parallel() {
@@ -1674,24 +1683,109 @@
     done
     wait  # Wait for any remaining background processes to finish
 }
+print_usage() {
+    cat &lt;&lt;EOF
+Usage: $0 [options]
+Options:
+  -h, --help             Show help text.
+  -d &lt;database_name&gt;     Specify the database name.
+  -t &lt;schema.table&gt;      Specify the schema.table name.
+  -f &lt;file_location&gt;     Specify the file location containing multiple tables to analyze.
+  -jobs &lt;num_jobs&gt;       Specify the maximum number of parallel maintenance processes for -f option (default: 4).
+  -catalog_maintenance   Perform maintenance on tables from the pg_catalog schema.
+  -usertable_maintenance Perform maintenance on user tables.
+  -vacuum_freeze         Perform vacuum freeze on tables.
+Maintenance commands:
+  v                      Perform VACUUM.
+  vf                     Perform VACUUM FULL.
+  r                      Perform REINDEX.
+  a                      Perform ANALYZE.
+Multiple commands can be combined without using spaces. For example: vra (Perform VACUUM, REINDEX, and ANALYZE)
+EOF
+}
+perform_catalog_maintenance() {
+    local dbname="$1"
+    maintenance_commands=("${@:2}")
+    local catalog_tables=$(psql --tuples-only -d "$dbname" -c "select schemaname || '.' || tablename from pg_tables where schemaname='pg_catalog';")
+    if [[ -n "$catalog_tables" ]]; then
+        execute_parallel "$catalog_tables" "$dbname" "${maintenance_commands[@]}"
+    else
+        echo "No tables found in the pg_catalog schema for maintenance."
+    fi
+}
+perform_usertable_maintenance() {
+    local dbname="$1"
+    maintenance_commands=("${@:2}")
+    local ao_tables=$(psql --tuples-only -d "$dbname" -c "SELECT schema_name || '.' || table_name FROM (SELECT n.nspname AS schema_name, c.relname AS table_name, c.reltuples AS num_rows, (gp_toolkit.__gp_aovisimap_hidden_info(c.oid)).total_tupcount AS ao_num_rows FROM pg_appendonly a JOIN pg_class c ON c.oid = a.relid JOIN pg_namespace n ON c.relnamespace = n.oid WHERE c.relkind = 'r' AND c.reltuples &gt; 0) AS sub GROUP BY schema_name, table_name, num_rows HAVING sum(ao_num_rows) &gt; num_rows * 1.05;")
+    local heap_tables=$(psql --tuples-only -d "$dbname" -c "SELECT bdinspname || '.' || bdirelname FROM gp_toolkit.gp_bloat_diag WHERE bdinspname &lt;&gt; 'pg_catalog';")
+    local table_list=""
+    if [[ -n "$ao_tables" ]]; then
+        table_list="$ao_tables"
+    fi
+    if [[ -n "$heap_tables" ]]; then
+        if [[ -n "$table_list" ]]; then
+            table_list+=$'\n'
+        fi
+        table_list+="$heap_tables"
+    fi
+    if [[ -n "$table_list" ]]; then
+        execute_parallel "$table_list" "$dbname" "${maintenance_commands[@]}"
+    else
+        echo "No tables found for user table maintenance."
+    fi
+}
+perform_vacuum_freeze() {
+    local dbname="$1"
+    maintenance_commands=("${@:2}")
+    local vacuum_freeze_min_age=$(psql -d "$dbname" -t -A -c "show vacuum_freeze_min_age;")
+    local vacuum_freeze_tables=$(psql --tuples-only -d "$dbname" -c "SELECT n.nspname || '.' || c.relname FROM pg_class c JOIN pg_namespace n ON c.relnamespace = n.oid WHERE age(relfrozenxid) &gt; $vacuum_freeze_min_age AND c.relkind = 'r' AND c.relstorage &lt;&gt; 'x';")
+    if [[ -n "$vacuum_freeze_tables" ]]; then
+        execute_parallel "$vacuum_freeze_tables" "$dbname" "${maintenance_commands[@]}"
+    else
+        echo "No tables found for vacuum freeze maintenance."
+    fi
+}
+check_superuser_mode() {
+    local is_superuser=$(ps -ef | grep "/usr/local/greenplum-db-6.23.0/bin/postgres" | grep -E "superuser_reserved_connections" | grep -v "grep")
+    if [[ -n "$is_superuser" ]]; then
+        return 0
+    fi
+    return 1
+}
 # Parse command-line arguments
 while [[ $# -gt 0 ]]; do
     case $1 in
+        "-h|--help")
+            print_usage
+            exit 0
+            ;;
         -d)
             databasename="$2"
+            shift 2
+            ;;
+        -t)
+            tbl="$2"
             shift 2
             ;;
         -f)
             tbl_file="$2"
             shift 2
             ;;
-        -t)
-            tbl="$2"
-            shift 2
-            ;;
         -jobs)
             MAX_PARALLEL="$2"
             shift 2
+            ;;
+        -catalog_maintenance)
+            catalog_maintenance=true
+            shift
+            ;;
+        -usertable_maintenance)
+            usertable_maintenance=true
+            shift
+            ;;
+        -vacuum_freeze)
+            vacuum_freeze=true
+            shift
             ;;
         *)
             maintenance_options="$1"
@@ -1701,39 +1795,53 @@
 done
 # Extract individual maintenance commands from the combined options
 maintenance_commands=()
-for ((i = 0; i &lt; ${#maintenance_options}; i++)); do
-    cmd="${maintenance_options:i:1}"
+for cmd in $(echo "$maintenance_options" | sed 's/\(.\)/\1\n/g'); do
     case "$cmd" in
         v | r | a)
             maintenance_commands+=("$cmd")
+            ;;
+        vf)
+            maintenance_commands+=("vf")
             ;;
         *)
             echo "Invalid maintenance command: $cmd"
             ;;
     esac
 done
-if [[ -z $databasename || (-z $tbl_file &amp;&amp; -z $tbl) || -z $MAX_PARALLEL ]]; then
-    cat &lt;&lt;EOF
-Usage: $0 [options]
--d &lt;database_name&gt;     Specify the database name.
--t &lt;schema.table&gt;      Specify the schema.table name.
--f &lt;file_location&gt;     Specify the file location containing multiple tables to analyze.
--jobs &lt;num_jobs&gt;       Specify the maximum number of parallel maintenance processes.
-Maintenance commands:
-    v                    Perform VACUUM.
-    r                    Perform REINDEX.
-    a                    Perform ANALYZE.
-    Multiple commands can be combined without using spaces. For example: vra (Perform VACUUM, REINDEX, and ANALYZE)
-EOF
+if [[ -z $databasename ]]; then
+    print_usage
     exit 1
 fi
-if [[ -n $tbl_file ]]; then
-    tbl_list=$(cat "$tbl_file")
+if [[ $catalog_maintenance == true ]]; then
+    check_superuser_mode
+    if [[ $? -eq 0 ]]; then
+        LOGFILE="${OPDIR}/catalog_maintenance_$(date +"%Y%m%d_%H%M%S").log"
+        perform_catalog_maintenance "$databasename" "${maintenance_commands[@]}"
+    else
+        echo "Database must be running in superuser mode for catalog maintenance."
+    fi
+elif [[ $usertable_maintenance == true ]]; then
+    LOGFILE="${OPDIR}/usertable_maintenance_$(date +"%Y%m%d_%H%M%S").log"
+    perform_usertable_maintenance "$databasename" "${maintenance_commands[@]}"
+elif [[ $vacuum_freeze == true ]]; then
+    LOGFILE="${OPDIR}/vacuum_freeze_$(date +"%Y%m%d_%H%M%S").log"
+    perform_vacuum_freeze "$databasename" "${maintenance_commands[@]}"
+elif [[ -n $tbl ]]; then
+    LOGFILE="${OPDIR}/maintenance_$(date +"%Y%m%d_%H%M%S").log"
+    perform_maintenance "$tbl" "$databasename" "${maintenance_commands[@]}"
+elif [[ -n $tbl_file ]]; then
+    if [[ -n $MAX_PARALLEL ]]; then
+        LOGFILE="${OPDIR}/parallel_maintenance_$(date +"%Y%m%d_%H%M%S").log"
+        tbl_list=$(cat "$tbl_file")
+        execute_parallel "$tbl_list" "$databasename" "${maintenance_commands[@]}"
+    else
+        print_usage
+        exit 1
+    fi
 else
-    tbl_list="$tbl"
-fi
-execute_parallel "$tbl_list" "$databasename" "${maintenance_commands[@]}"
-</t>
+    print_usage
+    exit 1
+fi</t>
   </si>
 </sst>
 </file>
@@ -2713,8 +2821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E046C55B-B008-4AD3-A9D0-512AF0428D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5283B0-E529-4ED1-B92A-0E72EABEB752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="326">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -1171,9 +1171,6 @@
 </t>
   </si>
   <si>
-    <t>analyzedb</t>
-  </si>
-  <si>
     <t>clusterdb</t>
   </si>
   <si>
@@ -1535,9 +1532,6 @@
   </si>
   <si>
     <t>gprecoverseg: Recovers a failed or unresponsive segment in Greenplum.</t>
-  </si>
-  <si>
-    <t>analyzedb: Updates the optimizer statistics for a specific Greenplum database.</t>
   </si>
   <si>
     <t>clusterdb: Reorganizes database storage to optimize performance by clustering tables.</t>
@@ -1843,12 +1837,43 @@
     exit 1
 fi</t>
   </si>
+  <si>
+    <t>analyzedb makes sure that your database has up-to-date information about your data. It does this by running the ANALYZE command on all tables in a specified part of your database.</t>
+  </si>
+  <si>
+    <t>Good statistics are crucial for the database to understand your data. They help the database figure out the best way to execute your queries efficiently.</t>
+  </si>
+  <si>
+    <t>You can use analyzedb to analyze a specific part of your database. For example, let's say you have a database named "sales_db" and you want to analyze all the tables in the "public" schema.</t>
+  </si>
+  <si>
+    <t>Example: analyzedb -d sales_db public</t>
+  </si>
+  <si>
+    <t>analyzedb -d &lt;dbname&gt;
+{ -s &lt;schema&gt; |
+{ -t &lt;schema&gt;.&lt;table&gt;
+[ -i &lt;col1&gt;[, &lt;col2&gt;, ...] |
+-x &lt;col1&gt;[, &lt;col2&gt;, ...] ] } |
+{ -f | --file} &lt;config-file&gt; }
+[ -l | --list ]
+[ --gen_profile_only ]
+[ -p &lt;parallel-level&gt; ]
+[ --full ]
+[ --skip_root_stats ]
+[ -v | --verbose ]
+[ --debug ]
+[ -a ]
+analyzedb { --clean_last | --clean_all }
+analyzedb --version
+analyzedb { -? | -h | --help }</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1863,6 +1888,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFD63384"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1886,13 +1917,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2821,7 +2853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2852,7 +2884,7 @@
         <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2959,10 +2991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4949F92-3536-4D23-844F-687E8521DA6A}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,567 +3002,583 @@
     <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.140625" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" t="s">
         <v>220</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>178</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>229</v>
       </c>
-      <c r="C10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>179</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>230</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>180</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>231</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>181</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>232</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>182</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>233</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>183</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>234</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C16" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C32" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C36" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C37" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C40" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C42" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C43" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C44" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C45" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C46" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C47" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C48" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C49" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5283B0-E529-4ED1-B92A-0E72EABEB752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F82D29-1EB3-4B91-9528-AEDD00F526D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="327">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -1868,23 +1868,18 @@
 analyzedb --version
 analyzedb { -? | -h | --help }</t>
   </si>
+  <si>
+    <t>analyzedb</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1913,21 +1908,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2994,7 +2986,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3010,9 +3002,9 @@
   <sheetData>
     <row r="1" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" t="s">
         <v>219</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3024,7 +3016,7 @@
       <c r="E1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>324</v>
       </c>
       <c r="G1" s="1" t="s">

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F82D29-1EB3-4B91-9528-AEDD00F526D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E380173-2C12-42E4-847D-CA1B4CB2D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="324">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -1171,9 +1171,6 @@
 </t>
   </si>
   <si>
-    <t>clusterdb</t>
-  </si>
-  <si>
     <t>createdb</t>
   </si>
   <si>
@@ -1324,9 +1321,6 @@
     <t>gpdb_analyzedb.html</t>
   </si>
   <si>
-    <t>gpdb_clusterdb.html</t>
-  </si>
-  <si>
     <t>gpdb_createdb.html</t>
   </si>
   <si>
@@ -1532,9 +1526,6 @@
   </si>
   <si>
     <t>gprecoverseg: Recovers a failed or unresponsive segment in Greenplum.</t>
-  </si>
-  <si>
-    <t>clusterdb: Reorganizes database storage to optimize performance by clustering tables.</t>
   </si>
   <si>
     <t>createdb: Creates a new Greenplum database.</t>
@@ -2876,7 +2867,7 @@
         <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2986,7 +2977,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3002,575 +2993,587 @@
   <sheetData>
     <row r="1" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>323</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>169</v>
-      </c>
       <c r="B2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" t="s">
-        <v>290</v>
+        <v>218</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C33" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C37" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C38" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C40" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C41" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B42" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C42" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C44" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C47" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C48" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C49" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C51" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E380173-2C12-42E4-847D-CA1B4CB2D631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4AFA5-17FF-4F5C-B6FF-9CD8E938616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB4AFA5-17FF-4F5C-B6FF-9CD8E938616A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986B6574-7DEC-43B7-8574-897594F00749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="319">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -1827,37 +1827,6 @@
     print_usage
     exit 1
 fi</t>
-  </si>
-  <si>
-    <t>analyzedb makes sure that your database has up-to-date information about your data. It does this by running the ANALYZE command on all tables in a specified part of your database.</t>
-  </si>
-  <si>
-    <t>Good statistics are crucial for the database to understand your data. They help the database figure out the best way to execute your queries efficiently.</t>
-  </si>
-  <si>
-    <t>You can use analyzedb to analyze a specific part of your database. For example, let's say you have a database named "sales_db" and you want to analyze all the tables in the "public" schema.</t>
-  </si>
-  <si>
-    <t>Example: analyzedb -d sales_db public</t>
-  </si>
-  <si>
-    <t>analyzedb -d &lt;dbname&gt;
-{ -s &lt;schema&gt; |
-{ -t &lt;schema&gt;.&lt;table&gt;
-[ -i &lt;col1&gt;[, &lt;col2&gt;, ...] |
--x &lt;col1&gt;[, &lt;col2&gt;, ...] ] } |
-{ -f | --file} &lt;config-file&gt; }
-[ -l | --list ]
-[ --gen_profile_only ]
-[ -p &lt;parallel-level&gt; ]
-[ --full ]
-[ --skip_root_stats ]
-[ -v | --verbose ]
-[ --debug ]
-[ -a ]
-analyzedb { --clean_last | --clean_all }
-analyzedb --version
-analyzedb { -? | -h | --help }</t>
   </si>
   <si>
     <t>analyzedb</t>
@@ -2974,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4949F92-3536-4D23-844F-687E8521DA6A}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2991,588 +2960,555 @@
     <col min="7" max="7" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s">
         <v>218</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>323</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>322</v>
+        <v>219</v>
+      </c>
+      <c r="C2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C28" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C29" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C30" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B34" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C39" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B40" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C44" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C50" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>217</v>
-      </c>
-      <c r="B51" t="s">
-        <v>267</v>
-      </c>
-      <c r="C51" t="s">
         <v>316</v>
       </c>
     </row>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986B6574-7DEC-43B7-8574-897594F00749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEE7ACD-FD3A-40BD-B58B-E1C8361EB0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="322">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -1830,6 +1831,24 @@
   </si>
   <si>
     <t>analyzedb</t>
+  </si>
+  <si>
+    <t>Date Posted</t>
+  </si>
+  <si>
+    <t>Currently looking for Greenplum DBA candidate for Mumbai Location.
+Exp Required: 4+ Years
+Skills - Greenplum, PostgreSql
+Those are interested for this location can share their updated resume at shivam.porwal@tcgdigital.com
+#jobopening #greenplum  #DBA #immediatejoiner #hybrid #openings #postgresql #mumbai #Pune #maharastra</t>
+  </si>
+  <si>
+    <t>Hello everyone,
+Dubai company is urgently looking for Greenplum DB Engineer. Project: 12 months
+100% remote, full-time. Min work experience: 5+ years
+Mandatory skills: Greenplum administration, tuning and performance optimization; Linux administration; monitoring tools (Prometheus+Grafana)
+Additionally: Kubernetes, Ansible, Git
+The position is closing quick. Send profiles and/or your questions in direct messages</t>
   </si>
 </sst>
 </file>
@@ -2194,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A9F994-8A4C-4B5B-9BE7-A89A4E7E7D13}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,7 +2964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4949F92-3536-4D23-844F-687E8521DA6A}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3516,4 +3535,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B863444F-CA43-4286-931D-C12D781FBC28}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="84.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEE7ACD-FD3A-40BD-B58B-E1C8361EB0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C1A273-176D-4DAF-810C-D9921DC64554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="324">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -1849,6 +1849,12 @@
 Mandatory skills: Greenplum administration, tuning and performance optimization; Linux administration; monitoring tools (Prometheus+Grafana)
 Additionally: Kubernetes, Ansible, Git
 The position is closing quick. Send profiles and/or your questions in direct messages</t>
+  </si>
+  <si>
+    <t>shivam.porwal@tcgdigital.com</t>
+  </si>
+  <si>
+    <t>hello@talentnations.com</t>
   </si>
 </sst>
 </file>
@@ -3539,31 +3545,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B863444F-CA43-4286-931D-C12D781FBC28}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="84.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>319</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>321</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C1A273-176D-4DAF-810C-D9921DC64554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BBA71D-F53F-43F2-9A1D-18CC3EED26D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="324">
   <si>
     <t>1. How to check the distribution policy of test table sales?</t>
   </si>
@@ -3545,10 +3545,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B863444F-CA43-4286-931D-C12D781FBC28}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3573,9 +3573,20 @@
         <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>323</v>
       </c>
     </row>

--- a/assets/data/questions_answer.xlsx
+++ b/assets/data/questions_answer.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kishan Panchal\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gamer\Documents\GitHub\greenplumdba.github.io\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BBA71D-F53F-43F2-9A1D-18CC3EED26D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{098F701D-9D93-4A3E-B39C-766BB974EEC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1616,52 +1615,80 @@
     <t>vacuumdb: Vacuums a PostgreSQL database, reclaiming disk space.</t>
   </si>
   <si>
-    <t>#!/bin/bash
+    <t>analyzedb</t>
+  </si>
+  <si>
+    <t>Date Posted</t>
+  </si>
+  <si>
+    <t>Currently looking for Greenplum DBA candidate for Mumbai Location.
+Exp Required: 4+ Years
+Skills - Greenplum, PostgreSql
+Those are interested for this location can share their updated resume at shivam.porwal@tcgdigital.com
+#jobopening #greenplum  #DBA #immediatejoiner #hybrid #openings #postgresql #mumbai #Pune #maharastra</t>
+  </si>
+  <si>
+    <t>Hello everyone,
+Dubai company is urgently looking for Greenplum DB Engineer. Project: 12 months
+100% remote, full-time. Min work experience: 5+ years
+Mandatory skills: Greenplum administration, tuning and performance optimization; Linux administration; monitoring tools (Prometheus+Grafana)
+Additionally: Kubernetes, Ansible, Git
+The position is closing quick. Send profiles and/or your questions in direct messages</t>
+  </si>
+  <si>
+    <t>shivam.porwal@tcgdigital.com</t>
+  </si>
+  <si>
+    <t>hello@talentnations.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"#!/bin/bash
 # Author: Kishan Panchal
-OPDIR="/home/gpadmin/logs"
-LOGFILE="${OPDIR}/adhoc_vacuum_analyze_$(date +"%Y%m%d_%H%M%S").log"
+OPDIR=""/home/gpadmin/logs""
+LOGFILE=""${OPDIR}/adhoc_vacuum_analyze_$(date +""%Y%m%d_%H%M%S"").log""
 MAX_PARALLEL=4  # Default maximum number of parallel processes
 perform_maintenance() {
-    schema_tbl="$1"
-    dbname="$2"
-    maintenance_commands=("${@:3}")
+    schema_tbl=""$1""
+    dbname=""$2""
+    maintenance_commands=(""${@:3}"")
     local run_vacuum=true
-    for cmd in "${maintenance_commands[@]}"; do
-        case "$cmd" in
+    for cmd in ""${maintenance_commands[@]}""; do
+        case ""$cmd"" in
             v)
-                if [[ "${maintenance_commands[*]}" =~ "vf" ]]; then
+                if [[ ""${maintenance_commands[*]}"" =~ ""vf"" ]]; then
                     run_vacuum=false
-                elif [[ "$run_vacuum" == "true" ]]; then
-                    psql --echo-all -d "$dbname" -c "vacuum $schema_tbl;"
+                elif [[ ""$run_vacuum"" == ""true"" ]]; then
+                    psql --echo-all -d ""$dbname"" -c ""vacuum $schema_tbl;""
                 fi
                 ;;
             vf)
-                psql --echo-all -d "$dbname" -c "vacuum full $schema_tbl;"
+                psql --echo-all -d ""$dbname"" -c ""vacuum full $schema_tbl;""
                 ;;
             r)
-                psql --echo-all -d "$dbname" -c "reindex table $schema_tbl;"
+                psql --echo-all -d ""$dbname"" -c ""reindex table $schema_tbl;""
                 ;;
             a)
-                psql --echo-all -d "$dbname" -c "analyze $schema_tbl;"
+                psql --echo-all -d ""$dbname"" -c ""analyze $schema_tbl;""
                 ;;
             *)
-                echo "Invalid maintenance command: $cmd"
+                echo ""Invalid maintenance command: $cmd""
                 ;;
         esac
     done
     {
-        echo -e "\n$(date)"
-        psql --echo-all -d "$dbname" -c "select now(), pg_size_pretty(pg_total_relation_size('$schema_tbl'));"
-        echo -e "\n$(date)"
-    } &gt;&gt; "$LOGFILE"
+        echo -e ""\n$(date)""
+        psql --echo-all -d ""$dbname"" -c ""select now(), pg_size_pretty(pg_total_relation_size('$schema_tbl'));""
+        echo -e ""\n$(date)""
+    } &gt;&gt; ""$LOGFILE""
     return 0
 }
+# Function to execute maintenance tasks in parallel with wait only 
 execute_parallel() {
-    local tbl_list="$1"
-    local dbname="$2"
-    local maintenance_commands=("${@:3}")
+    local tbl_list=""$1""
+    local dbname=""$2""
+    local maintenance_commands=(""${@:3}"")
     for tbl in $tbl_list; do
-        perform_maintenance "$tbl" "$dbname" "${maintenance_commands[@]}" &amp;
+        perform_maintenance ""$tbl"" ""$dbname"" ""${maintenance_commands[@]}"" &amp;
         pid=$!
         if (( $(jobs -p | wc -l) &gt;= MAX_PARALLEL )); then
             wait -n
@@ -1669,6 +1696,24 @@
     done
     wait  # Wait for any remaining background processes to finish
 }
+# Function to execute maintenance tasks in parallel with pids only 
+# execute_parallel() {
+#     local tbl_list="$1"
+#     local dbname="$2"
+#     local maintenance_commands=("${@:3}")
+#     local pids=()
+#     for tbl in $tbl_list; do
+#         perform_maintenance "$tbl" "$dbname" "${maintenance_commands[@]}" &amp;
+#         pids+=($!)
+#         if (( ${#pids[@]} &gt;= MAX_PARALLEL )); then
+#             for pid in "${pids[@]}"; do
+#                 wait "$pid"
+#             done
+#             pids=()
+#         fi
+#     done
+#     wait "${pids[@]}"  # Wait for any remaining background processes to finish
+# }
 print_usage() {
     cat &lt;&lt;EOF
 Usage: $0 [options]
@@ -1690,50 +1735,50 @@
 EOF
 }
 perform_catalog_maintenance() {
-    local dbname="$1"
-    maintenance_commands=("${@:2}")
-    local catalog_tables=$(psql --tuples-only -d "$dbname" -c "select schemaname || '.' || tablename from pg_tables where schemaname='pg_catalog';")
-    if [[ -n "$catalog_tables" ]]; then
-        execute_parallel "$catalog_tables" "$dbname" "${maintenance_commands[@]}"
+    local dbname=""$1""
+    maintenance_commands=(""${@:2}"")
+    local catalog_tables=$(psql --tuples-only -d ""$dbname"" -c ""select schemaname || '.' || tablename from pg_tables where schemaname='pg_catalog';"")
+    if [[ -n ""$catalog_tables"" ]]; then
+        execute_parallel ""$catalog_tables"" ""$dbname"" ""${maintenance_commands[@]}""
     else
-        echo "No tables found in the pg_catalog schema for maintenance."
+        echo ""No tables found in the pg_catalog schema for maintenance.""
     fi
 }
 perform_usertable_maintenance() {
-    local dbname="$1"
-    maintenance_commands=("${@:2}")
-    local ao_tables=$(psql --tuples-only -d "$dbname" -c "SELECT schema_name || '.' || table_name FROM (SELECT n.nspname AS schema_name, c.relname AS table_name, c.reltuples AS num_rows, (gp_toolkit.__gp_aovisimap_hidden_info(c.oid)).total_tupcount AS ao_num_rows FROM pg_appendonly a JOIN pg_class c ON c.oid = a.relid JOIN pg_namespace n ON c.relnamespace = n.oid WHERE c.relkind = 'r' AND c.reltuples &gt; 0) AS sub GROUP BY schema_name, table_name, num_rows HAVING sum(ao_num_rows) &gt; num_rows * 1.05;")
-    local heap_tables=$(psql --tuples-only -d "$dbname" -c "SELECT bdinspname || '.' || bdirelname FROM gp_toolkit.gp_bloat_diag WHERE bdinspname &lt;&gt; 'pg_catalog';")
-    local table_list=""
-    if [[ -n "$ao_tables" ]]; then
-        table_list="$ao_tables"
+    local dbname=""$1""
+    maintenance_commands=(""${@:2}"")
+    local ao_tables=$(psql --tuples-only -d ""$dbname"" -c ""SELECT schema_name || '.' || table_name FROM (SELECT n.nspname AS schema_name, c.relname AS table_name, c.reltuples AS num_rows, (gp_toolkit.__gp_aovisimap_hidden_info(c.oid)).total_tupcount AS ao_num_rows FROM pg_appendonly a JOIN pg_class c ON c.oid = a.relid JOIN pg_namespace n ON c.relnamespace = n.oid WHERE c.relkind = 'r' AND c.reltuples &gt; 0) AS sub GROUP BY schema_name, table_name, num_rows HAVING sum(ao_num_rows) &gt; num_rows * 1.05;"")
+    local heap_tables=$(psql --tuples-only -d ""$dbname"" -c ""SELECT bdinspname || '.' || bdirelname FROM gp_toolkit.gp_bloat_diag WHERE bdinspname &lt;&gt; 'pg_catalog';"")
+    local table_list=""""
+    if [[ -n ""$ao_tables"" ]]; then
+        table_list=""$ao_tables""
     fi
-    if [[ -n "$heap_tables" ]]; then
-        if [[ -n "$table_list" ]]; then
+    if [[ -n ""$heap_tables"" ]]; then
+        if [[ -n ""$table_list"" ]]; then
             table_list+=$'\n'
         fi
-        table_list+="$heap_tables"
+        table_list+=""$heap_tables""
     fi
-    if [[ -n "$table_list" ]]; then
-        execute_parallel "$table_list" "$dbname" "${maintenance_commands[@]}"
+    if [[ -n ""$table_list"" ]]; then
+        execute_parallel ""$table_list"" ""$dbname"" ""${maintenance_commands[@]}""
     else
-        echo "No tables found for user table maintenance."
+        echo ""No tables found for user table maintenance.""
     fi
 }
 perform_vacuum_freeze() {
-    local dbname="$1"
-    maintenance_commands=("${@:2}")
-    local vacuum_freeze_min_age=$(psql -d "$dbname" -t -A -c "show vacuum_freeze_min_age;")
-    local vacuum_freeze_tables=$(psql --tuples-only -d "$dbname" -c "SELECT n.nspname || '.' || c.relname FROM pg_class c JOIN pg_namespace n ON c.relnamespace = n.oid WHERE age(relfrozenxid) &gt; $vacuum_freeze_min_age AND c.relkind = 'r' AND c.relstorage &lt;&gt; 'x';")
-    if [[ -n "$vacuum_freeze_tables" ]]; then
-        execute_parallel "$vacuum_freeze_tables" "$dbname" "${maintenance_commands[@]}"
+    local dbname=""$1""
+    maintenance_commands=(""${@:2}"")
+    local vacuum_freeze_min_age=$(psql -d ""$dbname"" -t -A -c ""show vacuum_freeze_min_age;"")
+    local vacuum_freeze_tables=$(psql --tuples-only -d ""$dbname"" -c ""SELECT n.nspname || '.' || c.relname FROM pg_class c JOIN pg_namespace n ON c.relnamespace = n.oid WHERE age(relfrozenxid) &gt; $vacuum_freeze_min_age AND c.relkind = 'r' AND c.relstorage &lt;&gt; 'x';"")
+    if [[ -n ""$vacuum_freeze_tables"" ]]; then
+        execute_parallel ""$vacuum_freeze_tables"" ""$dbname"" ""${maintenance_commands[@]}""
     else
-        echo "No tables found for vacuum freeze maintenance."
+        echo ""No tables found for vacuum freeze maintenance.""
     fi
 }
 check_superuser_mode() {
-    local is_superuser=$(ps -ef | grep "/usr/local/greenplum-db-6.23.0/bin/postgres" | grep -E "superuser_reserved_connections" | grep -v "grep")
-    if [[ -n "$is_superuser" ]]; then
+    local is_superuser=$(ps -ef | grep ""/usr/local/greenplum-db-6.23.0/bin/postgres"" | grep -E ""superuser_reserved_connections"" | grep -v ""grep"")
+    if [[ -n ""$is_superuser"" ]]; then
         return 0
     fi
     return 1
@@ -1741,7 +1786,7 @@
 # Parse command-line arguments
 while [[ $# -gt 0 ]]; do
     case $1 in
-        "-h|--help")
+        "-h" | "--help")
             print_usage
             exit 0
             ;;
@@ -1773,9 +1818,14 @@
             vacuum_freeze=true
             shift
             ;;
+        -*)
+            maintenance_options="${1:1}" # Remove the leading "-"
+            shift
+            ;;
         *)
-            maintenance_options="$1"
-            shift
+            echo "Invalid option: $1"
+            print_usage
+            exit 1
             ;;
     esac
 done
@@ -1786,11 +1836,13 @@
         v | r | a)
             maintenance_commands+=("$cmd")
             ;;
-        vf)
+        f)
             maintenance_commands+=("vf")
             ;;
         *)
             echo "Invalid maintenance command: $cmd"
+            print_usage
+            exit 1
             ;;
     esac
 done
@@ -1801,25 +1853,25 @@
 if [[ $catalog_maintenance == true ]]; then
     check_superuser_mode
     if [[ $? -eq 0 ]]; then
-        LOGFILE="${OPDIR}/catalog_maintenance_$(date +"%Y%m%d_%H%M%S").log"
-        perform_catalog_maintenance "$databasename" "${maintenance_commands[@]}"
+        LOGFILE=""${OPDIR}/catalog_maintenance_$(date +""%Y%m%d_%H%M%S"").log""
+        perform_catalog_maintenance ""$databasename"" ""${maintenance_commands[@]}""
     else
-        echo "Database must be running in superuser mode for catalog maintenance."
+        echo ""Database must be running in superuser mode for catalog maintenance.""
     fi
 elif [[ $usertable_maintenance == true ]]; then
-    LOGFILE="${OPDIR}/usertable_maintenance_$(date +"%Y%m%d_%H%M%S").log"
-    perform_usertable_maintenance "$databasename" "${maintenance_commands[@]}"
+    LOGFILE=""${OPDIR}/usertable_maintenance_$(date +""%Y%m%d_%H%M%S"").log""
+    perform_usertable_maintenance ""$databasename"" ""${maintenance_commands[@]}""
 elif [[ $vacuum_freeze == true ]]; then
-    LOGFILE="${OPDIR}/vacuum_freeze_$(date +"%Y%m%d_%H%M%S").log"
-    perform_vacuum_freeze "$databasename" "${maintenance_commands[@]}"
+    LOGFILE=""${OPDIR}/vacuum_freeze_$(date +""%Y%m%d_%H%M%S"").log""
+    perform_vacuum_freeze ""$databasename"" ""${maintenance_commands[@]}""
 elif [[ -n $tbl ]]; then
-    LOGFILE="${OPDIR}/maintenance_$(date +"%Y%m%d_%H%M%S").log"
-    perform_maintenance "$tbl" "$databasename" "${maintenance_commands[@]}"
+    LOGFILE=""${OPDIR}/maintenance_$(date +""%Y%m%d_%H%M%S"").log""
+    perform_maintenance ""$tbl"" ""$databasename"" ""${maintenance_commands[@]}""
 elif [[ -n $tbl_file ]]; then
     if [[ -n $MAX_PARALLEL ]]; then
-        LOGFILE="${OPDIR}/parallel_maintenance_$(date +"%Y%m%d_%H%M%S").log"
-        tbl_list=$(cat "$tbl_file")
-        execute_parallel "$tbl_list" "$databasename" "${maintenance_commands[@]}"
+        LOGFILE=""${OPDIR}/parallel_maintenance_$(date +""%Y%m%d_%H%M%S"").log""
+        tbl_list=$(cat ""$tbl_file"")
+        execute_parallel ""$tbl_list"" ""$databasename"" ""${maintenance_commands[@]}""
     else
         print_usage
         exit 1
@@ -1827,40 +1879,14 @@
 else
     print_usage
     exit 1
-fi</t>
-  </si>
-  <si>
-    <t>analyzedb</t>
-  </si>
-  <si>
-    <t>Date Posted</t>
-  </si>
-  <si>
-    <t>Currently looking for Greenplum DBA candidate for Mumbai Location.
-Exp Required: 4+ Years
-Skills - Greenplum, PostgreSql
-Those are interested for this location can share their updated resume at shivam.porwal@tcgdigital.com
-#jobopening #greenplum  #DBA #immediatejoiner #hybrid #openings #postgresql #mumbai #Pune #maharastra</t>
-  </si>
-  <si>
-    <t>Hello everyone,
-Dubai company is urgently looking for Greenplum DB Engineer. Project: 12 months
-100% remote, full-time. Min work experience: 5+ years
-Mandatory skills: Greenplum administration, tuning and performance optimization; Linux administration; monitoring tools (Prometheus+Grafana)
-Additionally: Kubernetes, Ansible, Git
-The position is closing quick. Send profiles and/or your questions in direct messages</t>
-  </si>
-  <si>
-    <t>shivam.porwal@tcgdigital.com</t>
-  </si>
-  <si>
-    <t>hello@talentnations.com</t>
+fi"
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2216,11 +2242,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A9F994-8A4C-4B5B-9BE7-A89A4E7E7D13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,11 +2853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50341F2-1B4B-47BD-B947-7A8B139210CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2887,7 @@
         <v>166</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2967,11 +2993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4949F92-3536-4D23-844F-687E8521DA6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,7 +3013,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B1" t="s">
         <v>218</v>
@@ -3544,10 +3570,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B863444F-CA43-4286-931D-C12D781FBC28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3559,35 +3585,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
